--- a/Veille emergences avril 2024 clean.xlsx
+++ b/Veille emergences avril 2024 clean.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benedictemelot/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB21848-A8C8-1D44-9091-22ED6761C5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A565293-E8F0-A842-B311-029DC4648B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Europe" sheetId="1" r:id="rId1"/>
-    <sheet name="Océanie" sheetId="5" r:id="rId2"/>
-    <sheet name="Amérique" sheetId="6" r:id="rId3"/>
+    <sheet name="clean" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clean!$A$1:$H$200</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="498">
   <si>
     <t>Date</t>
   </si>
@@ -63,9 +64,6 @@
   </si>
   <si>
     <t>https://www.niid.go.jp/niid/en/2013-03-15-04-55-59/2656-disease-based/alphabet/group-a-streptococcus/cepr/12608-stss-2023-2024eng.html / https://www.diplomatie.gouv.fr/fr/conseils-aux-voyageurs/conseils-par-pays-destination/japon/</t>
-  </si>
-  <si>
-    <t>Rougeole</t>
   </si>
   <si>
     <t xml:space="preserve">Many international destinations are reporting increased numbers of cases of measles. </t>
@@ -1918,9 +1916,6 @@
     <t>Virus Ross River</t>
   </si>
   <si>
-    <t>1562 détectés depuis janvier dans la région tropicale de l'Autrsalie (Queensland). Transmission par piqure de moustique. Manifestations cliniques: articulations douloureuses et enflées et douleurs musculaires et tendineuses. D'autres symptômes peuvent inclure de la fièvre, des maux de tête, de la fatigue, une éruption cutanée rouge en relief et des ganglions lymphatiques enflés. Parfois persistance des symptômes plusieurs mois.</t>
-  </si>
-  <si>
     <t>https://promedmail.org/promed-post?place=8715736,285]</t>
   </si>
   <si>
@@ -1942,9 +1937,6 @@
     <t>Alaskapox virus</t>
   </si>
   <si>
-    <t>1er décès lié à un Alaskapox virus. Homme âgé, immunodéprimé sous chimio pour un cancer solide. Initialement papule de l'aisselle droite biopsiée suivi d'un défaut de cicatrisation. Myosite, nouvelles lésions sur le corps, puis dénutrition, insuffisance rénale aigue et respiratoire. Virus découvert en 2015, habituellement responsable d'éruption cutanée localisée et une lymphadénopathie. 9 cas humains décrits.</t>
-  </si>
-  <si>
     <t>A New York, 244 cas déclarés du 1er octobre 2023 au 31 janvier 2024, soit une augmentation de près de 200 % par rapport à la période correspondante en 2022-2023. L'âge médian de tous les cas survenus entre octobre 2023 et janvier 2024 est de 5 ans (de 8 semaines à 93 ans). Les cas ont inclus un mélange de personnes non vaccinées (principalement des nourrissons), de personnes vaccinées (principalement des enfants d'âge scolaire) et de personnes dont les antécédents de vaccination sont inconnus (principalement des adultes). Neuf cas ont été hospitalisés au cours de cette période.</t>
   </si>
   <si>
@@ -1966,9 +1958,6 @@
     <t>https://promedmail.org/promed-post?place=8715147,260]</t>
   </si>
   <si>
-    <t>Résumés des cas de rougeole en 2024 par le CDC: As of 29 Feb 2024, a total of 41 measles cases were reported by 16 jurisdictions: Arizona, California, Florida, Georgia, Indiana, Louisiana, Maryland, Michigan, Minnesota, Missouri, New Jersey, New York City, Ohio, Pennsylvania, Virginia, and Washington. Contre 58 en 2023.</t>
-  </si>
-  <si>
     <t>https://www.cdc.gov/measles/cases-outbreaks.html</t>
   </si>
   <si>
@@ -2005,15 +1994,9 @@
     <t>https://promedmail.org/promed-post?place=8715215,52913]</t>
   </si>
   <si>
-    <t>60 cas de rougeole depuis début 2024</t>
-  </si>
-  <si>
     <t>https://promedmail.org/promed-post?place=8715438,106</t>
   </si>
   <si>
-    <t>31  cas de rougeole depuis début 2024</t>
-  </si>
-  <si>
     <t>https://promedmail.org/promed-post?place=8715438,12]</t>
   </si>
   <si>
@@ -2074,9 +2057,6 @@
     <t> https://promedmail.org/promed-post?place=8715715,52913]</t>
   </si>
   <si>
-    <t xml:space="preserve">52 cas de rougeole à Chicago (14 adultes, 31 enfants &lt; 5 ans, 7 enfants de 5-17 ans), dont la majorité provient d'un camps de migrants. </t>
-  </si>
-  <si>
     <t>https://promedmail.org/promed-post?place=8715709,520]</t>
   </si>
   <si>
@@ -2146,21 +2126,6 @@
     <t>one confirmed case of West Nile virus (WNV) from Thilogne district, Matam region. The case was a 23-year-old male with no history of travel in the last 14 days. He developed symptoms of high fever, headache, and body pains and sought medical attention at the Thilogne district health centre. Blood samples collected and tested positive for WNV using ELISA (immunoglobin M) at the lnstitut Pasteur in Dakar. The case was managed and stabilized.</t>
   </si>
   <si>
-    <r>
-      <t>4 cas de rougeole,( Toronto, Mississauga  Kitchener  Ontario) chez despersonnes  non vaccinées. Probablement liées à des contacts avec des voyageurs</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (4 autres cas en cours de confirmation)</t>
-    </r>
-  </si>
-  <si>
     <t>1 cas chez une femme de 65 ans dans le Michigan (fièvre, thrombopénie, élévation modérée transaminases, insuffisance respiratoire aigue), new york virus identifié. Pas de voyage hors du Michigan, mais exposition à des souris lors du nettoyage d'une maison inhabitée.Sérologie hantavirus positive. les analyses génétiques réalisées chez la patiente et les rongeurs capturés sur place suggèrent que cette espèce pourrait être une variante du SNV (virus sin nombre) ou du NYV (New york virus)</t>
   </si>
   <si>
@@ -2216,9 +2181,6 @@
   </si>
   <si>
     <t>Roumania</t>
-  </si>
-  <si>
-    <t>Orange</t>
   </si>
   <si>
     <t>Lebanon</t>
@@ -2478,15 +2440,6 @@
   </si>
   <si>
     <t>Guyana</t>
-  </si>
-  <si>
-    <t>Vert</t>
-  </si>
-  <si>
-    <t>Rouge</t>
-  </si>
-  <si>
-    <t>Cas depuis début 2024: Guatemala. 6760 cases; Severe cases 31; Deaths 3. Panama. 2745 cases; Serious cases 14. Dominican Republic. 3889 cases in 1st 5 weeks of 2024. Puerto Rico.  549 cases, public health emergency declaRouge. Argentina. 78 606 cases; Deaths 47 ;  Brazil: [A 30 Mar 2024 update reported 2 486 502 confirmed cases, 897 deaths with 1337 additional deaths under investigation. Health emergency declaRouge. Peru. 79 741, 262,2% more than last year (2023); Deaths 82;  Ecuador. 11 492 cases; Deaths 15 with 6 adults, 9 children; Uruguay. 32 imported cases, 2 locally acquiRouge cases.</t>
   </si>
   <si>
     <t>Reference</t>
@@ -2619,6 +2572,15 @@
   </si>
   <si>
     <t xml:space="preserve">52 cas de redole à Chicago (14 adultes, 31 enfants &lt; 5 ans, 7 enfants de 5-17 ans), dont la majorité provient d'un camps de migrants. </t>
+  </si>
+  <si>
+    <t>Alerte moyenne</t>
+  </si>
+  <si>
+    <t>Alerte élevée</t>
+  </si>
+  <si>
+    <t>Alerte faible</t>
   </si>
 </sst>
 </file>
@@ -2716,7 +2678,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2744,12 +2706,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2821,7 +2777,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2859,7 +2815,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2938,20 +2893,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2968,6 +2914,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3254,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3271,282 +3223,315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>465</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>469</v>
-      </c>
-      <c r="G1" s="50" t="s">
+      <c r="B1" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
+      <c r="H1" s="46" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
         <v>45376</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>45370</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>45323</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
+    </row>
+    <row r="5" spans="1:8" ht="154" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
         <v>45340</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
+        <v>115</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
         <v>45340</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+        <v>115</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="196" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
         <v>45366</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="C7" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>45386</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
+        <v>45386</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>45386</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
-        <v>45386</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="H9" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="182" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>45385</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
-        <v>45385</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="H10" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
         <v>45373</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>45386</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>45386</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="20" t="s">
         <v>168</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3554,278 +3539,314 @@
         <v>45331</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="154" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+    </row>
+    <row r="14" spans="1:8" ht="98" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
         <v>45386</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" ht="319" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>45356</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="56" x14ac:dyDescent="0.2">
+      <c r="H15" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="319" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>45356</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="H16" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="319" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>45356</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="319" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>45356</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="H18" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="319" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>45356</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
+      <c r="H19" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
         <v>45370</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+    </row>
+    <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
         <v>45327</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="182" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>45353</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+        <v>465</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
         <v>45361</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="C23" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
         <v>45377</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="C24" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="182" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>45389</v>
       </c>
@@ -3833,206 +3854,233 @@
         <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>475</v>
+        <v>465</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>496</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="84" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
+        <v>463</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="332" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
         <v>45391</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="140" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>45391</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="140" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>45391</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="140" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>45391</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="D29" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="140" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>45391</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="70" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
+        <v>465</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
         <v>45373</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F31" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="70" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
+    </row>
+    <row r="32" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
         <v>45373</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F32" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
+    </row>
+    <row r="33" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
         <v>45372</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>45373</v>
       </c>
@@ -4040,22 +4088,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>45387</v>
       </c>
@@ -4063,22 +4114,25 @@
         <v>4</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="H35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>45388</v>
       </c>
@@ -4086,45 +4140,51 @@
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A37" s="25">
+    </row>
+    <row r="37" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A37" s="24">
         <v>45363</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G37" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" ht="319" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>45368</v>
       </c>
@@ -4132,22 +4192,25 @@
         <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>45384</v>
       </c>
@@ -4155,91 +4218,103 @@
         <v>4</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E39" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="98" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>45318</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="E40" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>45318</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="E41" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="98" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>45338</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>45364</v>
       </c>
@@ -4247,22 +4322,25 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>45360</v>
       </c>
@@ -4270,22 +4348,25 @@
         <v>4</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>45373</v>
       </c>
@@ -4293,22 +4374,25 @@
         <v>2</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="E45" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45373</v>
       </c>
@@ -4316,22 +4400,25 @@
         <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="E46" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45373</v>
       </c>
@@ -4339,22 +4426,25 @@
         <v>2</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="E47" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>45373</v>
       </c>
@@ -4362,22 +4452,25 @@
         <v>2</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D48" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="E48" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>45373</v>
       </c>
@@ -4385,22 +4478,25 @@
         <v>2</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="E49" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>45373</v>
       </c>
@@ -4408,22 +4504,25 @@
         <v>2</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="E50" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>45373</v>
       </c>
@@ -4431,22 +4530,25 @@
         <v>2</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="E51" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>45373</v>
       </c>
@@ -4454,22 +4556,25 @@
         <v>2</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D52" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="E52" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>45373</v>
       </c>
@@ -4477,22 +4582,25 @@
         <v>2</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D53" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="E53" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>45373</v>
       </c>
@@ -4500,22 +4608,25 @@
         <v>2</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="E54" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>45379</v>
       </c>
@@ -4523,22 +4634,25 @@
         <v>4</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>45394</v>
       </c>
@@ -4546,22 +4660,25 @@
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>45366</v>
       </c>
@@ -4569,298 +4686,337 @@
         <v>4</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A58" s="18">
+    </row>
+    <row r="58" spans="1:8" ht="285" x14ac:dyDescent="0.2">
+      <c r="A58" s="17">
         <v>45379</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A59" s="18">
+      <c r="C58" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="225" x14ac:dyDescent="0.2">
+      <c r="A59" s="17">
         <v>45387</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="126" x14ac:dyDescent="0.15">
+      <c r="C59" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="306" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>45330</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>45394</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D61" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E61" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="210" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:8" ht="126" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>45335</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="98" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:8" ht="168" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>45384</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E63" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="140" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>45388</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D64" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E64" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="84" x14ac:dyDescent="0.2">
-      <c r="A65" s="18">
+    </row>
+    <row r="65" spans="1:8" ht="210" x14ac:dyDescent="0.2">
+      <c r="A65" s="17">
         <v>45371</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="D65" s="19" t="s">
+      <c r="C65" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G65" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="18">
+      <c r="H65" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A66" s="17">
         <v>45370</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" s="19" t="s">
+      <c r="C66" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H66" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A67" s="18">
+    </row>
+    <row r="67" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+      <c r="A67" s="17">
         <v>45351</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G67" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F67" s="19" t="s">
+      <c r="H67" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="G67" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>45386</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D68" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E68" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F68" s="7" t="s">
+      <c r="H68" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>45326</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>45331</v>
       </c>
@@ -4868,45 +5024,51 @@
         <v>2</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A71" s="18">
+      <c r="E70" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="252" x14ac:dyDescent="0.2">
+      <c r="A71" s="17">
         <v>45362</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="D71" s="19" t="s">
+      <c r="C71" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D71" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F71" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="G71" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="E71" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G71" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>45367</v>
       </c>
@@ -4914,252 +5076,285 @@
         <v>4</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A73" s="18">
+      <c r="E72" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A73" s="17">
         <v>45369</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="D73" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="E73" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="168" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>45379</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+      <c r="E74" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="168" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45379</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="E75" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="168" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>45379</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="98" x14ac:dyDescent="0.2">
-      <c r="A77" s="18">
+      <c r="E76" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A77" s="17">
         <v>45385</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="D77" s="19" t="s">
+      <c r="C77" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H77" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E77" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="126" x14ac:dyDescent="0.2">
-      <c r="A78" s="18">
+    </row>
+    <row r="78" spans="1:8" ht="195" x14ac:dyDescent="0.2">
+      <c r="A78" s="17">
         <v>45390</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="G78" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="18">
+      <c r="C78" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A79" s="17">
         <v>45370</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="D79" s="19" t="s">
+      <c r="C79" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H79" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E79" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="84" x14ac:dyDescent="0.2">
-      <c r="A80" s="18">
+    </row>
+    <row r="80" spans="1:8" ht="300" x14ac:dyDescent="0.2">
+      <c r="A80" s="17">
         <v>45371</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="G80" s="20" t="s">
+      <c r="C80" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A81" s="17">
+        <v>45382</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H81" s="19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A81" s="18">
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A82" s="17">
         <v>45382</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="D81" s="19" t="s">
+      <c r="B82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D82" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A82" s="18">
-        <v>45382</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G82" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="E82" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45391</v>
       </c>
@@ -5167,321 +5362,363 @@
         <v>4</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="E83" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>45349</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D84" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H84" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E84" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="98" x14ac:dyDescent="0.2">
-      <c r="A85" s="18">
+    </row>
+    <row r="85" spans="1:8" ht="225" x14ac:dyDescent="0.2">
+      <c r="A85" s="17">
         <v>45385</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G85" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="70" x14ac:dyDescent="0.2">
-      <c r="A86" s="18">
+      <c r="C85" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A86" s="17">
         <v>45371</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C86" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="D86" s="19" t="s">
+      <c r="C86" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E86" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G86" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F86" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A87" s="18">
+      <c r="H86" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+      <c r="A87" s="17">
         <v>45367</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D87" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F87" s="19" t="s">
+      <c r="E87" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="165" x14ac:dyDescent="0.2">
+      <c r="A88" s="17">
+        <v>45388</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G88" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="G87" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A88" s="18">
-        <v>45388</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C88" s="19" t="s">
+      <c r="H88" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D88" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="G88" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="182" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:8" ht="98" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>45302</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D89" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H89" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E89" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F89" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A90" s="18">
+    </row>
+    <row r="90" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A90" s="17">
         <v>45358</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="D90" s="19" t="s">
+      <c r="C90" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="D90" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="G90" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A91" s="18">
+      <c r="E90" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A91" s="17">
         <v>45371</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="D91" s="19" t="s">
+      <c r="C91" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="G91" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A92" s="18">
+      <c r="E91" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A92" s="17">
         <v>45372</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="D92" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D92" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G92" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A93" s="18">
+      <c r="E92" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="225" x14ac:dyDescent="0.2">
+      <c r="A93" s="17">
         <v>45388</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D93" s="19" t="s">
+      <c r="C93" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="E93" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>45343</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E94" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="140" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>45354</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E95" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="G95" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E95" s="48" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A96" s="18">
+      <c r="F95" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A96" s="17">
         <v>45364</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="E96" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F96" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="G96" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C96" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="E96" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H96" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="266" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>45373</v>
       </c>
@@ -5489,22 +5726,25 @@
         <v>2</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F97" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="266" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>45373</v>
       </c>
@@ -5512,22 +5752,25 @@
         <v>2</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F98" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="266" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>45373</v>
       </c>
@@ -5535,22 +5778,25 @@
         <v>2</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E99" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="266" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>45373</v>
       </c>
@@ -5558,22 +5804,25 @@
         <v>2</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F100" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E100" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="266" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>45373</v>
       </c>
@@ -5581,22 +5830,25 @@
         <v>2</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F101" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E101" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="266" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>45373</v>
       </c>
@@ -5604,22 +5856,25 @@
         <v>2</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E102" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F102" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E102" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F102" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="266" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>45373</v>
       </c>
@@ -5627,22 +5882,25 @@
         <v>2</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E103" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F103" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E103" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="266" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>45373</v>
       </c>
@@ -5650,22 +5908,25 @@
         <v>2</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F104" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E104" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="266" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>45373</v>
       </c>
@@ -5673,22 +5934,25 @@
         <v>2</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F105" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E105" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="266" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>45373</v>
       </c>
@@ -5696,22 +5960,25 @@
         <v>2</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E106" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F106" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="E106" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="266" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>45373</v>
       </c>
@@ -5719,45 +5986,51 @@
         <v>2</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E107" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F107" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="56" x14ac:dyDescent="0.2">
-      <c r="A108" s="25">
+        <v>465</v>
+      </c>
+      <c r="E107" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+      <c r="A108" s="24">
         <v>45373</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F108" s="7" t="s">
+      <c r="C108" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="D108" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G108" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="E108" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H108" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="350" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>45380</v>
       </c>
@@ -5765,344 +6038,389 @@
         <v>10</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="G109" s="5" t="s">
+      <c r="E109" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="H109" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A110" s="18">
+    <row r="110" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A110" s="17">
         <v>45362</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E110" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="G110" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D110" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A111" s="18">
+      <c r="E110" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="H110" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="182" x14ac:dyDescent="0.2">
+      <c r="A111" s="17">
         <v>45309</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="D111" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="D111" s="19" t="s">
+      <c r="E111" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G111" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E111" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F111" s="19" t="s">
+      <c r="H111" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G111" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A112" s="18">
+    </row>
+    <row r="112" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A112" s="17">
         <v>45365</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C112" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="D112" s="19" t="s">
+      <c r="C112" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E112" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H112" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E112" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F112" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="G112" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="18">
+    </row>
+    <row r="113" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A113" s="17">
         <v>45368</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C113" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F113" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="G113" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A114" s="18">
+      <c r="C113" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E113" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="210" x14ac:dyDescent="0.2">
+      <c r="A114" s="17">
         <v>45374</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="D114" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G114" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E114" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="F114" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G114" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="84" x14ac:dyDescent="0.2">
-      <c r="A115" s="18">
+      <c r="H114" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="A115" s="17">
         <v>45394</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="D115" s="19" t="s">
+      <c r="C115" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E115" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H115" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E115" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="F115" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G115" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <v>45309</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F116" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E116" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F116" s="1" t="s">
+      <c r="H116" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:8" ht="140" x14ac:dyDescent="0.2">
       <c r="A117" s="11">
         <v>45319</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E117" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F117" s="1" t="s">
+      <c r="H117" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A118" s="11">
         <v>45320</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="E118" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="140" x14ac:dyDescent="0.2">
       <c r="A119" s="11">
         <v>45327</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F119" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F119" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>45327</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="E120" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A121" s="11">
         <v>45341</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E121" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F121" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E121" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="H121" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A122" s="11">
         <v>45341</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E122" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F122" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E122" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="H122" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A123" s="11">
         <v>45344</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D123" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E123" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E123" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+      <c r="H123" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
         <v>45347</v>
       </c>
@@ -6110,429 +6428,489 @@
         <v>4</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+      <c r="E124" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
         <v>45351</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E125" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="H125" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A126" s="11"/>
       <c r="B126" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E126" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F126" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A127" s="11"/>
       <c r="B127" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E127" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F127" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A128" s="11"/>
       <c r="B128" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E128" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F128" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A129" s="11"/>
       <c r="B129" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E129" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F129" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A130" s="11"/>
       <c r="B130" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E130" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E130" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F130" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A131" s="11"/>
       <c r="B131" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E131" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F131" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A132" s="11"/>
       <c r="B132" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F132" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A133" s="11"/>
       <c r="B133" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E133" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F133" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A134" s="11"/>
       <c r="B134" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E134" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F134" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A135" s="11"/>
       <c r="B135" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E135" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F135" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A136" s="11"/>
       <c r="B136" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E136" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F136" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A137" s="11"/>
       <c r="B137" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="E137" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F137" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="168" x14ac:dyDescent="0.2">
       <c r="A138" s="11">
         <v>45353</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F138" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A139" s="11">
         <v>45356</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E139" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E139" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F139" s="1" t="s">
+      <c r="H139" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>45356</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E140" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+      <c r="F140" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="11"/>
       <c r="B141" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E141" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G141" s="45" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E141" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F141" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H141" s="41" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="11"/>
       <c r="B142" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E142" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G142" s="45" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E142" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F142" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H142" s="41" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="11"/>
       <c r="B143" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E143" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G143" s="45" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+      <c r="E143" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F143" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H143" s="41" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A144" s="11">
         <v>45367</v>
       </c>
@@ -6540,22 +6918,25 @@
         <v>4</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E144" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F144" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E144" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F144" s="1" t="s">
+      <c r="H144" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G144" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A145" s="11">
         <v>45368</v>
       </c>
@@ -6563,22 +6944,25 @@
         <v>4</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E145" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F145" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F145" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G145" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A146" s="11">
         <v>45371</v>
       </c>
@@ -6586,22 +6970,25 @@
         <v>4</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E146" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F146" s="1" t="s">
+      <c r="E146" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F146" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H146" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G146" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A147" s="11">
         <v>45372</v>
       </c>
@@ -6609,22 +6996,25 @@
         <v>4</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D147" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E147" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F147" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E147" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F147" s="1" t="s">
+      <c r="H147" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A148" s="11">
         <v>45374</v>
       </c>
@@ -6632,22 +7022,25 @@
         <v>4</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E148" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F148" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F148" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A149" s="11">
         <v>45379</v>
       </c>
@@ -6655,22 +7048,25 @@
         <v>4</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D149" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E149" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E149" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F149" s="1" t="s">
+      <c r="H149" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G149" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A150" s="11">
         <v>45383</v>
       </c>
@@ -6678,43 +7074,49 @@
         <v>4</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E150" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F150" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F150" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G150" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A151" s="11"/>
       <c r="B151" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E151" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="E151" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F151" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A152" s="11">
         <v>45386</v>
       </c>
@@ -6722,22 +7124,25 @@
         <v>4</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E152" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F152" s="42" t="s">
-        <v>449</v>
-      </c>
-      <c r="G152" s="46" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="E152" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F152" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G152" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="H152" s="42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A153" s="11">
         <v>45386</v>
       </c>
@@ -6745,22 +7150,25 @@
         <v>4</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E153" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="F153" s="1" t="s">
+      <c r="E153" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F153" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G153" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A154" s="11">
         <v>45390</v>
       </c>
@@ -6768,22 +7176,25 @@
         <v>4</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E154" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F154" s="1" t="s">
+      <c r="E154" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G154" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A155" s="11">
         <v>45391</v>
       </c>
@@ -6791,551 +7202,623 @@
         <v>4</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E155" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="F155" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E155" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G155" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:8" ht="98" x14ac:dyDescent="0.2">
       <c r="A156" s="11">
         <v>45320</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E156" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F156" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E156" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F156" s="1" t="s">
+      <c r="H156" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G156" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A157" s="11">
         <v>45365</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E157" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F157" s="1" t="s">
+      <c r="H157" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G157" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A158" s="11">
         <v>45384</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D158" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E158" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F158" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E158" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="43">
+    </row>
+    <row r="159" spans="1:8" ht="182" x14ac:dyDescent="0.2">
+      <c r="A159" s="40">
         <v>45383</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E159" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F159" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A160" s="11">
         <v>45310</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E160" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G160" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="E160" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F160" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>45327</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E161" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G161" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="E161" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F161" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>45329</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E162" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="E162" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F162" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>45331</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>457</v>
+        <v>221</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>448</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E163" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="E163" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F163" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A164" s="11">
         <v>45334</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E164" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+      <c r="E164" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F164" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A165" s="11">
         <v>45338</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E165" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F165" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A166" s="11">
         <v>45348</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E166" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F166" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="266" x14ac:dyDescent="0.2">
       <c r="A167" s="11">
         <v>45352</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E167" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F167" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A168" s="11">
         <v>45353</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E168" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F168" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A169" s="11">
         <v>45355</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E169" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F169" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="126" x14ac:dyDescent="0.2">
       <c r="A170" s="11">
         <v>45356</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E170" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F170" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="154" x14ac:dyDescent="0.2">
       <c r="A171" s="11">
         <v>45356</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E171" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E171" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F171" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="168" x14ac:dyDescent="0.2">
       <c r="A172" s="11">
         <v>45357</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E172" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="E172" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F172" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A173" s="11">
         <v>45358</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E173" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="E173" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F173" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A174" s="11">
         <v>45358</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E174" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="E174" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F174" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A175" s="11">
         <v>45358</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E175" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="E175" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F175" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A176" s="11">
         <v>45358</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E176" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="E176" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F176" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A177" s="11">
         <v>45358</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E177" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="E177" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F177" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A178" s="11">
         <v>45358</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E178" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F178" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E178" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="G178" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A179" s="11">
         <v>45368</v>
       </c>
@@ -7343,22 +7826,25 @@
         <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E179" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F179" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A180" s="11">
         <v>45368</v>
       </c>
@@ -7366,22 +7852,25 @@
         <v>4</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E180" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F180" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A181" s="11">
         <v>45368</v>
       </c>
@@ -7389,22 +7878,25 @@
         <v>4</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E181" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F181" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A182" s="11">
         <v>45375</v>
       </c>
@@ -7412,22 +7904,25 @@
         <v>4</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E182" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="E182" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F182" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A183" s="11">
         <v>45377</v>
       </c>
@@ -7435,22 +7930,25 @@
         <v>4</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E183" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F183" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A184" s="11">
         <v>45377</v>
       </c>
@@ -7458,22 +7956,25 @@
         <v>4</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E184" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F184" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A185" s="11">
         <v>45377</v>
       </c>
@@ -7481,22 +7982,25 @@
         <v>4</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E185" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F185" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A186" s="11">
         <v>45378</v>
       </c>
@@ -7504,22 +8008,25 @@
         <v>4</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E186" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="E186" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F186" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A187" s="11">
         <v>45380</v>
       </c>
@@ -7527,22 +8034,25 @@
         <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E187" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F187" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A188" s="11">
         <v>45381</v>
       </c>
@@ -7550,22 +8060,25 @@
         <v>4</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E188" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="E188" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F188" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A189" s="11">
         <v>45381</v>
       </c>
@@ -7573,22 +8086,25 @@
         <v>4</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E189" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F189" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A190" s="11">
         <v>45381</v>
       </c>
@@ -7596,22 +8112,25 @@
         <v>4</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E190" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F190" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A191" s="11">
         <v>45381</v>
       </c>
@@ -7619,22 +8138,25 @@
         <v>4</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E191" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F191" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A192" s="11">
         <v>45382</v>
       </c>
@@ -7642,22 +8164,25 @@
         <v>4</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E192" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F192" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A193" s="11">
         <v>45386</v>
       </c>
@@ -7665,22 +8190,25 @@
         <v>4</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E193" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F193" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A194" s="11">
         <v>45386</v>
       </c>
@@ -7688,22 +8216,25 @@
         <v>4</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E194" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="F194" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A195" s="11">
         <v>45387</v>
       </c>
@@ -7711,22 +8242,25 @@
         <v>4</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E195" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="E195" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F195" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A196" s="11">
         <v>45391</v>
       </c>
@@ -7734,22 +8268,25 @@
         <v>4</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E196" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="E196" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F196" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A197" s="11">
         <v>45392</v>
       </c>
@@ -7757,22 +8294,25 @@
         <v>2</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E197" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="E197" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F197" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A198" s="11">
         <v>45394</v>
       </c>
@@ -7780,22 +8320,25 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E198" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F198" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H198" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E198" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A199" s="11">
         <v>45395</v>
       </c>
@@ -7803,22 +8346,25 @@
         <v>4</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E199" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="E199" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F199" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="70" x14ac:dyDescent="0.2">
       <c r="A200" s="11">
         <v>45395</v>
       </c>
@@ -7826,1381 +8372,145 @@
         <v>4</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E200" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
+      </c>
+      <c r="E200" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="F200" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H200" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G48">
     <sortCondition ref="D1:D48"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G19" r:id="rId3" display="https://www.who.int/emergencies/disease-outbreak-news/item/2024-DON509" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G29" r:id="rId4" display="https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-rougeole-en-europe-en-2024" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G27" r:id="rId5" display="https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-rougeole-en-europe-en-2024" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G30" r:id="rId6" display="https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-rougeole-en-europe-en-2024" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G30" r:id="rId7" display="https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-rougeole-en-europe-en-2024" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G28" r:id="rId8" display="https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-rougeole-en-europe-en-2024" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G18" r:id="rId9" display="https://www.who.int/emergencies/disease-outbreak-news/item/2024-DON509" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G17" r:id="rId10" display="https://www.who.int/emergencies/disease-outbreak-news/item/2024-DON509" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G16" r:id="rId11" display="https://www.who.int/emergencies/disease-outbreak-news/item/2024-DON509" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G15" r:id="rId12" display="https://www.who.int/emergencies/disease-outbreak-news/item/2024-DON509" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G40" r:id="rId13" xr:uid="{B667BFC8-864D-CF4D-820C-87ABE71AB931}"/>
-    <hyperlink ref="G70" r:id="rId14" xr:uid="{90A895AE-C53C-2049-89D1-8E369BF4415A}"/>
-    <hyperlink ref="G74" r:id="rId15" xr:uid="{23E5472F-9693-974C-A491-A7BC8003BF3B}"/>
-    <hyperlink ref="G75" r:id="rId16" xr:uid="{04A69854-9C19-E54A-B585-545AA23C39EA}"/>
-    <hyperlink ref="G76" r:id="rId17" xr:uid="{AD2C006A-640A-4F47-90AA-046825726D0B}"/>
-    <hyperlink ref="G63" r:id="rId18" display="https://www.who.int/emergencies/disease-outbreak-news/item/2024-DON511" xr:uid="{0008B997-85DE-7844-B9B5-09D1E740D3D9}"/>
-    <hyperlink ref="G108" r:id="rId19" display="https://promedmail.org/promed-post/?id=8715544" xr:uid="{EB60CD9E-90BE-F24B-942F-EDFFF397070F}"/>
-    <hyperlink ref="G79" r:id="rId20" xr:uid="{971F10B1-6F65-6D45-BFE2-0B8074F198E4}"/>
-    <hyperlink ref="G87" r:id="rId21" display="https://promedmail.org/promed-post/?id=8715429" xr:uid="{50D841B6-8501-3541-9D2B-068DA1BD0CD9}"/>
-    <hyperlink ref="G66" r:id="rId22" xr:uid="{0A1C2D38-E08E-2544-A776-8D68EE55B4E0}"/>
-    <hyperlink ref="G107" r:id="rId23" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{287F608C-8243-9341-A271-E24CD33CE9C7}"/>
-    <hyperlink ref="G106" r:id="rId24" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{8C3FC823-A403-D546-85D6-ECF0C899B4BC}"/>
-    <hyperlink ref="G105" r:id="rId25" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{C9629103-E7B8-694D-BD65-0C51C88F2546}"/>
-    <hyperlink ref="G104" r:id="rId26" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{2A3A9F80-5043-C74A-BB53-D9F7D23DFBDE}"/>
-    <hyperlink ref="G103" r:id="rId27" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{CFDAA316-DD09-3E4C-BC39-9BB2C6BBEC2B}"/>
-    <hyperlink ref="G102" r:id="rId28" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{C649B4B8-F1C3-354F-9830-548597BCCBFF}"/>
-    <hyperlink ref="G101" r:id="rId29" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{616C4884-C985-0D4D-AD3D-740EE640B997}"/>
-    <hyperlink ref="G100" r:id="rId30" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{63CFDBDB-3E5B-3C41-A9F8-E9A18ECE14A2}"/>
-    <hyperlink ref="G99" r:id="rId31" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{1527C260-E204-754D-AE1D-9AE2D8FE69A4}"/>
-    <hyperlink ref="G98" r:id="rId32" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{DD21F0B9-54D3-A74E-B6F4-82B5B53F1C35}"/>
-    <hyperlink ref="G97" r:id="rId33" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{07DA59A2-F5D9-DC48-98E2-CD54AE86143F}"/>
-    <hyperlink ref="G125" r:id="rId34" display="https://promedmail.org/promed-post?place=8715079,50" xr:uid="{72EC3A22-05A8-8A4B-872B-BE428196D7C6}"/>
-    <hyperlink ref="G138" r:id="rId35" xr:uid="{A78A50CF-0927-5045-B49F-AEEF21696023}"/>
-    <hyperlink ref="G139" r:id="rId36" xr:uid="{89DED1A0-5536-7749-ABFB-C4F5E0155209}"/>
-    <hyperlink ref="G140" r:id="rId37" display="https://promedmail.org/promed-post?place=8715221,41" xr:uid="{DF497C88-60FC-CF43-A8C9-C62E6AB43533}"/>
-    <hyperlink ref="G144" r:id="rId38" display="https://promedmail.org/promed-post?place=8715430,28188" xr:uid="{200F4F19-0EAF-154A-88B7-5EBDBF2FD9EB}"/>
-    <hyperlink ref="G145" r:id="rId39" display="https://promedmail.org/promed-post?place=8715437,38681" xr:uid="{DB007E1E-7044-4F43-94EF-98E07C54551A}"/>
-    <hyperlink ref="G146" r:id="rId40" display="https://promedmail.org/promed-post?place=8715515,6075" xr:uid="{420460F0-9402-2944-931D-4F6B22D9C33B}"/>
-    <hyperlink ref="G147" r:id="rId41" display="https://promedmail.org/promed-post?place=8715531,6075" xr:uid="{4AA9AE34-48FB-EA44-AE34-AD153535878D}"/>
-    <hyperlink ref="G148" r:id="rId42" display="https://promedmail.org/promed-post?place=8715576,62" xr:uid="{673BD477-FA72-E844-A06C-0A43C11100BE}"/>
-    <hyperlink ref="G149" r:id="rId43" display="https://promedmail.org/promed-post?place=8715674,9888" xr:uid="{A300FE0A-F273-A84F-9B66-ACD15245AE65}"/>
-    <hyperlink ref="G150" r:id="rId44" display="https://promedmail.org/promed-post?place=8715722,8402" xr:uid="{F2A0012B-7053-A743-8EBA-9D65D2BE85CC}"/>
-    <hyperlink ref="G153" r:id="rId45" display="https://promedmail.org/promed-post?place=8715779,194" xr:uid="{DD3AFECE-D8C1-2045-93A9-1EFC634273E1}"/>
-    <hyperlink ref="G154" r:id="rId46" display="https://promedmail.org/promed-post?place=8715855,68888" xr:uid="{667FCDD6-F299-9740-B845-13D9EEBD0AFA}"/>
-    <hyperlink ref="G155" r:id="rId47" xr:uid="{87CF0E07-8B1F-D347-9574-FFA34D630D7F}"/>
-    <hyperlink ref="G116" r:id="rId48" display="https://www.mesvaccins.net/web/news/21586-fievre-jaune-dans-l-etat-d-equatoria-occidental-au-soudan-du-sud-18-cas-signales-a-ce-jour" xr:uid="{8C60447E-8A08-6C43-8092-27C825C989FF}"/>
-    <hyperlink ref="G118" r:id="rId49" display="https://www.mesvaccins.net/web/news/21623-l-epidemie-de-cholera-continue-de-s-etendre-en-zambie" xr:uid="{25123355-9275-0944-8ADA-833A4507433A}"/>
-    <hyperlink ref="G117" r:id="rId50" xr:uid="{515929E4-6B44-B945-8351-E3AFFEB62D0C}"/>
-    <hyperlink ref="G119" r:id="rId51" xr:uid="{04A66AB3-4378-9348-8F89-D1DD8AC70063}"/>
-    <hyperlink ref="G120" r:id="rId52" display="https://www.mesvaccins.net/web/news/21643-un-deces-humain-du-a-la-rage-signale-en-tunisie" xr:uid="{435E3A34-9BF8-454E-A6E9-152B2834E5F8}"/>
-    <hyperlink ref="G121" r:id="rId53" display="https://www.mesvaccins.net/web/news/21717-ouganda-trois-foyers-de-charbon-et-trois-deces-signales-en-2024" xr:uid="{B979CD76-F1C4-174F-A388-0EB304FDAEB6}"/>
-    <hyperlink ref="G122" r:id="rId54" display="https://www.mesvaccins.net/web/news/21718-plusieurs-cas-de-fievre-hemorragique-de-crimee-congo-en-ouganda" xr:uid="{23AF6A8E-8974-8C46-8184-4AEFAC086F92}"/>
-    <hyperlink ref="G123" r:id="rId55" display="https://www.mesvaccins.net/web/news/21732-nouvelle-epidemie-de-peste-dans-la-province-d-ituri-en-republique-democratique-du-congo" xr:uid="{AFB365EA-15F6-7E47-98A7-2AB0F640B4D2}"/>
-    <hyperlink ref="G126" r:id="rId56" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{A1466686-19FA-F243-B103-E283080A0DC6}"/>
-    <hyperlink ref="G127" r:id="rId57" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{F03CDE3A-5F5B-4A41-8BB5-A8A13CAA90C1}"/>
-    <hyperlink ref="G128" r:id="rId58" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{FB983DA3-D009-DA45-ABD8-F6ACCF2249CC}"/>
-    <hyperlink ref="G129" r:id="rId59" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{52ABAF8D-3F46-084E-8FEB-FCF1AD540FE0}"/>
-    <hyperlink ref="G130" r:id="rId60" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{BE1D2664-4DF8-A641-BD0E-D7719223C3E2}"/>
-    <hyperlink ref="G131" r:id="rId61" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{A197038A-F09C-5245-A0DB-1BF240733507}"/>
-    <hyperlink ref="G132" r:id="rId62" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{62258FCB-2332-A64D-BBB5-6308B0C21271}"/>
-    <hyperlink ref="G133" r:id="rId63" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{55840D3C-FB1D-1A47-BDDC-26987951B7D8}"/>
-    <hyperlink ref="G134" r:id="rId64" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{123056B9-D1CA-F344-949B-E32FC571B095}"/>
-    <hyperlink ref="G135" r:id="rId65" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{07E53D16-0D7D-164C-BABB-490DD4B4336E}"/>
-    <hyperlink ref="G136" r:id="rId66" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{849CA073-B07F-A643-8CE4-B7FDD5BF5B14}"/>
-    <hyperlink ref="G137" r:id="rId67" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{3D997F8C-354F-3D41-AD89-E7D1688C1687}"/>
-    <hyperlink ref="G142" r:id="rId68" display="https://reliefweb.int/report/nigeria/who-african-region-health-emergency-situation-report-multi-country-outbreak-diphtheria-consolidated-regional-situation-report-006-february-25-2024" xr:uid="{9077D1C7-3F65-F040-B693-BD750D51650E}"/>
-    <hyperlink ref="G143" r:id="rId69" display="https://reliefweb.int/report/nigeria/who-african-region-health-emergency-situation-report-multi-country-outbreak-diphtheria-consolidated-regional-situation-report-006-february-25-2024" xr:uid="{11D76A3C-06C5-EE4F-B0C2-5EACB67C4A92}"/>
-    <hyperlink ref="G141" r:id="rId70" display="https://reliefweb.int/report/nigeria/who-african-region-health-emergency-situation-report-multi-country-outbreak-diphtheria-consolidated-regional-situation-report-006-february-25-2024" xr:uid="{EC8164F9-1CEE-054C-B82B-90A811EAB322}"/>
-    <hyperlink ref="G157" r:id="rId71" display="https://promedmail.org/promed-post?place=8715382,186" xr:uid="{436F0F37-741F-EF42-A128-8A0E39438366}"/>
-    <hyperlink ref="G158" r:id="rId72" display="https://promedmail.org/promed-post?place=8715736,285" xr:uid="{3E3106D6-6BB9-4F4F-B867-3D8FC59D3300}"/>
-    <hyperlink ref="G159" r:id="rId73" display="https://wwwnc.cdc.gov/travel/notices/level2/chikungunya-timor-leste" xr:uid="{28C2636C-7CE2-0A4B-87A2-BA1F050453FB}"/>
-    <hyperlink ref="G156" r:id="rId74" display="https://www.mesvaccins.net/web/news/21621-plusieurs-cas-de-melioidose-dont-un-mortel-dans-le-queensland-en-australie" xr:uid="{F588F336-BC0A-F847-AA34-AE16E4AAF733}"/>
-    <hyperlink ref="G167" r:id="rId75" display="https://promedmail.org/promed-post?place=8715129,4" xr:uid="{215A3A0C-BB7B-6141-ADF8-23FDDF8DEF68}"/>
-    <hyperlink ref="G168" r:id="rId76" display="https://promedmail.org/promed-post?place=8715147,260" xr:uid="{0AA528C1-C26E-6C4C-AED5-95B5FA293920}"/>
-    <hyperlink ref="G169" r:id="rId77" xr:uid="{DC0491F1-B72C-0E46-BD2C-E0C104244834}"/>
-    <hyperlink ref="G170" r:id="rId78" xr:uid="{7926B09D-222E-3143-88AD-3005260ADDB4}"/>
-    <hyperlink ref="G172" r:id="rId79" xr:uid="{2229758F-6985-8F42-ADB8-7CB38BA94C98}"/>
-    <hyperlink ref="G171" r:id="rId80" xr:uid="{7C4E95C3-9EC9-684B-AD3B-192AF7BA8D59}"/>
-    <hyperlink ref="G178" r:id="rId81" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{C81B2E9A-4DA0-E041-A999-F496DCE7FABB}"/>
-    <hyperlink ref="G179" r:id="rId82" xr:uid="{4C677526-BAD0-C549-951A-57B756E21603}"/>
-    <hyperlink ref="G180" r:id="rId83" display="https://promedmail.org/promed-post?place=8715438,12" xr:uid="{F2764E00-C2EC-F844-B4FF-A9D7425CFBBD}"/>
-    <hyperlink ref="G181" r:id="rId84" xr:uid="{9CA52070-09DF-4241-91D1-12113DFB013F}"/>
-    <hyperlink ref="G182" r:id="rId85" display="https://promedmail.org/promed-post?place=8715591,241" xr:uid="{FFAB4579-D0E0-0848-A688-7B908CC464A4}"/>
-    <hyperlink ref="G185" r:id="rId86" display="https://promedmail.org/promed-post?place=8715625,52913" xr:uid="{333D3E05-3B5D-4B4A-B585-7C00BF6E3207}"/>
-    <hyperlink ref="G186" r:id="rId87" display="https://promedmail.org/promed-post?place=8715627,41725" xr:uid="{8D018CBD-A3E9-EC42-B8CB-FD4EE2F9CC1A}"/>
-    <hyperlink ref="G187" r:id="rId88" display="https://promedmail.org/promed-post?place=8715662,11" xr:uid="{6004488D-217D-144D-9ED0-6BBD7FC96BAD}"/>
-    <hyperlink ref="G188" r:id="rId89" display="https://promedmail.org/promed-post?place=8715698,240" xr:uid="{A06AA0C1-2D16-BC41-87C6-FABA31E99717}"/>
-    <hyperlink ref="G193" r:id="rId90" xr:uid="{24B60AD5-9278-294B-8944-37E563BA2C91}"/>
-    <hyperlink ref="G194" r:id="rId91" display="https://promedmail.org/promed-post?place=8715779,274" xr:uid="{5684E22F-E0AA-4F49-A567-13BAA6DA8B7D}"/>
-    <hyperlink ref="G195" r:id="rId92" display="https://promedmail.org/promed-post?place=8715796,204" xr:uid="{59647129-4070-D441-82CC-CAF5DFECCA4D}"/>
-    <hyperlink ref="G196" r:id="rId93" display="https://promedmail.org/promed-post?place=8715849,985" xr:uid="{A2CC45AF-CD03-8D49-B586-1C6262AD8AFD}"/>
-    <hyperlink ref="G198" r:id="rId94" xr:uid="{739B5ADC-94A5-1D4F-9E1B-F775EB9FAB98}"/>
-    <hyperlink ref="G199" r:id="rId95" display="https://promedmail.org/promed-post?place=8715929,6" xr:uid="{0F3BB63F-EE3F-0D42-9421-DF0B08FC24A0}"/>
-    <hyperlink ref="G192" r:id="rId96" display="https://promedmail.org/promed-post?place=8715709,520" xr:uid="{159F5228-1FB7-334F-8E29-C41D5B3991C6}"/>
-    <hyperlink ref="G200" r:id="rId97" display="https://promedmail.org/promed-post?place=8715942,4" xr:uid="{BEA28BAD-285A-1B45-A541-092380F82642}"/>
-    <hyperlink ref="G197" r:id="rId98" display="https://www.cdc.gov/listeria/outbreaks/cheese-02-24/index.html" xr:uid="{0B4CD74D-4BEE-6F41-812F-22A5A1817A31}"/>
-    <hyperlink ref="G161" r:id="rId99" display="https://www.mesvaccins.net/web/news/21652-chili-premier-cas-d-infection-a-hantavirus-dans-la-region-de-la-araucania-signale-en-2024" xr:uid="{97F940F3-810A-3F40-9D62-09CCCB278CE1}"/>
-    <hyperlink ref="G163" r:id="rId100" display="https://www.mesvaccins.net/web/news/21663-un-cas-de-peste-humaine-signale-en-oregon-etats-unis" xr:uid="{42EC37F7-F9FC-914D-9C41-6BAB1247A29B}"/>
-    <hyperlink ref="G162" r:id="rId101" display="https://www.mesvaccins.net/web/news/21661-etat-d-alerte-vis-a-vis-de-la-dengue-au-bresil" xr:uid="{A9FE8C85-DD92-964B-AF20-A971246E528A}"/>
-    <hyperlink ref="G164" r:id="rId102" display="https://www.mesvaccins.net/web/news/21670-l-alaska-rapporte-le-premier-deces-du-a-un-alaskapox-virus" xr:uid="{0213AEFD-1C8B-5347-9DC6-895076298C14}"/>
-    <hyperlink ref="G165" r:id="rId103" display="https://www.mesvaccins.net/web/news/21696-alerte-a-la-coqueluche-a-new-york" xr:uid="{6165B223-1B2B-8F46-A6DE-79BA361E62DD}"/>
-    <hyperlink ref="G166" r:id="rId104" display="https://www.mesvaccins.net/web/news/21746-le-costa-rica-signale-une-augmentation-de-1-260-des-cas-de-dengue-au-cours-des-six-premieres-semaines-de-2024" xr:uid="{840AD03E-6561-7744-B8A8-0B62AC8A3F81}"/>
-    <hyperlink ref="G160" r:id="rId105" display="https://www.mesvaccins.net/web/news/21592-en-bolivie-deux-cas-d-infection-a-hantavirus-dont-un-deces-signales-dans-le-departement-de-cochabamba" xr:uid="{885BB686-A43B-9144-883A-F571C22757CE}"/>
-    <hyperlink ref="G173" r:id="rId106" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{AFBE9634-54D6-CC4B-91D5-28F8D0D8D743}"/>
-    <hyperlink ref="G174" r:id="rId107" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{FF8EAE69-DDAC-9348-A655-870EE53DE6D1}"/>
-    <hyperlink ref="G175" r:id="rId108" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{41997EDB-32E6-2A40-911A-E63420F02810}"/>
-    <hyperlink ref="G176" r:id="rId109" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{C5B75957-2687-0C4B-A7DA-F60816E06CAE}"/>
-    <hyperlink ref="G177" r:id="rId110" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{5D25EAAD-7796-4240-9467-13BDAEF73473}"/>
-    <hyperlink ref="G183" r:id="rId111" display="https://promedmail.org/promed-post?place=8715625,52913" xr:uid="{F2EC3F92-E6C4-7741-A0D7-CBB98417AD15}"/>
-    <hyperlink ref="G184" r:id="rId112" display="https://promedmail.org/promed-post?place=8715625,52913" xr:uid="{6BC51C18-40F0-914B-8124-8C949BB43AB2}"/>
-    <hyperlink ref="G189" r:id="rId113" display="https://promedmail.org/promed-post?place=8715715,52913" xr:uid="{73EA6A4B-AF7E-E94B-BB5B-67E4A14CF920}"/>
-    <hyperlink ref="G190" r:id="rId114" display="https://promedmail.org/promed-post?place=8715715,52913" xr:uid="{9E83AE74-ABD6-C248-81F6-B70C320E8790}"/>
-    <hyperlink ref="G191" r:id="rId115" display="https://promedmail.org/promed-post?place=8715715,52913" xr:uid="{3C0F73B0-F0A9-494F-B621-D902E6CD2083}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="52.1640625" customWidth="1"/>
-    <col min="7" max="7" width="56.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>465</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>469</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
-        <v>45320</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-    </row>
-    <row r="3" spans="1:11" s="13" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
-        <v>45365</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" ht="112" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
-        <v>45384</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="1:11" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A5" s="43">
-        <v>45383</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://promedmail.org/promed-post?place=8715382,186" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" display="https://promedmail.org/promed-post?place=8715736,285" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="G5" r:id="rId3" display="https://wwwnc.cdc.gov/travel/notices/level2/chikungunya-timor-leste" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="G2" r:id="rId4" display="https://www.mesvaccins.net/web/news/21621-plusieurs-cas-de-melioidose-dont-un-mortel-dans-le-queensland-en-australie" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="56.83203125" customWidth="1"/>
-    <col min="7" max="7" width="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>465</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>469</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>45310</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>45327</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" s="44"/>
-    </row>
-    <row r="4" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>45329</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H4" s="44"/>
-    </row>
-    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>45331</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="44"/>
-    </row>
-    <row r="6" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>45334</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="1:11" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>45338</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H7" s="44"/>
-    </row>
-    <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>45348</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>45352</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>45353</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H10" s="44"/>
-    </row>
-    <row r="11" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>45355</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="12" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>45356</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H12" s="44"/>
-    </row>
-    <row r="13" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>45356</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H13" s="44"/>
-    </row>
-    <row r="14" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>45357</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H14" s="44"/>
-    </row>
-    <row r="15" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>45358</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H15" s="44"/>
-    </row>
-    <row r="16" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>45358</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H16" s="44"/>
-    </row>
-    <row r="17" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>45358</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H17" s="44"/>
-    </row>
-    <row r="18" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>45358</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H18" s="44"/>
-    </row>
-    <row r="19" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>45358</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="44"/>
-    </row>
-    <row r="20" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>45358</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="44"/>
-    </row>
-    <row r="21" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>45368</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H21" s="44"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>45368</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="1:8" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>45368</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H23" s="44"/>
-    </row>
-    <row r="24" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>45375</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H24" s="44"/>
-    </row>
-    <row r="25" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
-        <v>45377</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H25" s="44"/>
-    </row>
-    <row r="26" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
-        <v>45377</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
-        <v>45377</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H27" s="44"/>
-    </row>
-    <row r="28" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
-        <v>45378</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
-        <v>45380</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H29" s="44"/>
-    </row>
-    <row r="30" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
-        <v>45381</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H30" s="44"/>
-    </row>
-    <row r="31" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
-        <v>45381</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H31" s="44"/>
-    </row>
-    <row r="32" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
-        <v>45381</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H32" s="44"/>
-    </row>
-    <row r="33" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
-        <v>45381</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H33" s="44"/>
-    </row>
-    <row r="34" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
-        <v>45382</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H34" s="44"/>
-    </row>
-    <row r="35" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
-        <v>45386</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H35" s="44"/>
-    </row>
-    <row r="36" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
-        <v>45386</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H36" s="44"/>
-    </row>
-    <row r="37" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
-        <v>45387</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H37" s="44"/>
-    </row>
-    <row r="38" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
-        <v>45391</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H38" s="44"/>
-    </row>
-    <row r="39" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
-        <v>45392</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H39" s="44"/>
-    </row>
-    <row r="40" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
-        <v>45394</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="H40" s="44"/>
-    </row>
-    <row r="41" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
-        <v>45395</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="H41" s="44"/>
-    </row>
-    <row r="42" spans="1:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11">
-        <v>45395</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H42" s="44"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" display="https://promedmail.org/promed-post?place=8715129,4" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="G10" r:id="rId2" display="https://promedmail.org/promed-post?place=8715147,260" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="G11" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="G14" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="G13" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="G20" r:id="rId7" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="G21" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="G22" r:id="rId9" display="https://promedmail.org/promed-post?place=8715438,12" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="G23" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="G24" r:id="rId11" display="https://promedmail.org/promed-post?place=8715591,241" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="G27" r:id="rId12" display="https://promedmail.org/promed-post?place=8715625,52913" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="G28" r:id="rId13" display="https://promedmail.org/promed-post?place=8715627,41725" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="G29" r:id="rId14" display="https://promedmail.org/promed-post?place=8715662,11" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="G30" r:id="rId15" display="https://promedmail.org/promed-post?place=8715698,240" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="G35" r:id="rId16" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="G36" r:id="rId17" display="https://promedmail.org/promed-post?place=8715779,274" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
-    <hyperlink ref="G37" r:id="rId18" display="https://promedmail.org/promed-post?place=8715796,204" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
-    <hyperlink ref="G38" r:id="rId19" display="https://promedmail.org/promed-post?place=8715849,985" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
-    <hyperlink ref="G40" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
-    <hyperlink ref="G41" r:id="rId21" display="https://promedmail.org/promed-post?place=8715929,6" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
-    <hyperlink ref="G34" r:id="rId22" display="https://promedmail.org/promed-post?place=8715709,520" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
-    <hyperlink ref="G42" r:id="rId23" display="https://promedmail.org/promed-post?place=8715942,4" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
-    <hyperlink ref="G39" r:id="rId24" display="https://www.cdc.gov/listeria/outbreaks/cheese-02-24/index.html" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
-    <hyperlink ref="G3" r:id="rId25" display="https://www.mesvaccins.net/web/news/21652-chili-premier-cas-d-infection-a-hantavirus-dans-la-region-de-la-araucania-signale-en-2024" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
-    <hyperlink ref="G5" r:id="rId26" display="https://www.mesvaccins.net/web/news/21663-un-cas-de-peste-humaine-signale-en-oregon-etats-unis" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
-    <hyperlink ref="G4" r:id="rId27" display="https://www.mesvaccins.net/web/news/21661-etat-d-alerte-vis-a-vis-de-la-dengue-au-bresil" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
-    <hyperlink ref="G6" r:id="rId28" display="https://www.mesvaccins.net/web/news/21670-l-alaska-rapporte-le-premier-deces-du-a-un-alaskapox-virus" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
-    <hyperlink ref="G7" r:id="rId29" display="https://www.mesvaccins.net/web/news/21696-alerte-a-la-coqueluche-a-new-york" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
-    <hyperlink ref="G8" r:id="rId30" display="https://www.mesvaccins.net/web/news/21746-le-costa-rica-signale-une-augmentation-de-1-260-des-cas-de-dengue-au-cours-des-six-premieres-semaines-de-2024" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
-    <hyperlink ref="G2" r:id="rId31" display="https://www.mesvaccins.net/web/news/21592-en-bolivie-deux-cas-d-infection-a-hantavirus-dont-un-deces-signales-dans-le-departement-de-cochabamba" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
-    <hyperlink ref="G15" r:id="rId32" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{F372B03A-E601-5840-98BC-624A823633BC}"/>
-    <hyperlink ref="G16" r:id="rId33" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{DD78AE3C-7ABC-314A-9DD3-65B0756781C2}"/>
-    <hyperlink ref="G17" r:id="rId34" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{638D615D-95BC-4E48-9E8C-6C4C1CE33B63}"/>
-    <hyperlink ref="G18" r:id="rId35" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{21FE802F-2306-A34E-9D12-06D6F12BC0AB}"/>
-    <hyperlink ref="G19" r:id="rId36" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{F6A6333F-FBD0-E348-AD17-93D379F8C66A}"/>
-    <hyperlink ref="G25" r:id="rId37" display="https://promedmail.org/promed-post?place=8715625,52913" xr:uid="{38A9BE1A-23C0-2346-AE97-C4CB54F9094D}"/>
-    <hyperlink ref="G26" r:id="rId38" display="https://promedmail.org/promed-post?place=8715625,52913" xr:uid="{C5C25E24-6A24-394C-A67F-06B0D9FE857E}"/>
-    <hyperlink ref="G31" r:id="rId39" display="https://promedmail.org/promed-post?place=8715715,52913" xr:uid="{B50E622A-4A35-F949-AA14-3DD2B017D09B}"/>
-    <hyperlink ref="G32" r:id="rId40" display="https://promedmail.org/promed-post?place=8715715,52913" xr:uid="{01FE188C-259A-2E4C-AE31-F7CAD37A6D99}"/>
-    <hyperlink ref="G33" r:id="rId41" display="https://promedmail.org/promed-post?place=8715715,52913" xr:uid="{B34A8515-0558-1B44-B2F6-3A1EEF457807}"/>
+    <hyperlink ref="H11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H19" r:id="rId3" display="https://www.who.int/emergencies/disease-outbreak-news/item/2024-DON509" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H29" r:id="rId4" display="https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-rougeole-en-europe-en-2024" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H27" r:id="rId5" display="https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-rougeole-en-europe-en-2024" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H30" r:id="rId6" display="https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-rougeole-en-europe-en-2024" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H30" r:id="rId7" display="https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-rougeole-en-europe-en-2024" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H28" r:id="rId8" display="https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-rougeole-en-europe-en-2024" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H18" r:id="rId9" display="https://www.who.int/emergencies/disease-outbreak-news/item/2024-DON509" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H17" r:id="rId10" display="https://www.who.int/emergencies/disease-outbreak-news/item/2024-DON509" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H16" r:id="rId11" display="https://www.who.int/emergencies/disease-outbreak-news/item/2024-DON509" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H15" r:id="rId12" display="https://www.who.int/emergencies/disease-outbreak-news/item/2024-DON509" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H40" r:id="rId13" xr:uid="{B667BFC8-864D-CF4D-820C-87ABE71AB931}"/>
+    <hyperlink ref="H70" r:id="rId14" xr:uid="{90A895AE-C53C-2049-89D1-8E369BF4415A}"/>
+    <hyperlink ref="H74" r:id="rId15" xr:uid="{23E5472F-9693-974C-A491-A7BC8003BF3B}"/>
+    <hyperlink ref="H75" r:id="rId16" xr:uid="{04A69854-9C19-E54A-B585-545AA23C39EA}"/>
+    <hyperlink ref="H76" r:id="rId17" xr:uid="{AD2C006A-640A-4F47-90AA-046825726D0B}"/>
+    <hyperlink ref="H63" r:id="rId18" display="https://www.who.int/emergencies/disease-outbreak-news/item/2024-DON511" xr:uid="{0008B997-85DE-7844-B9B5-09D1E740D3D9}"/>
+    <hyperlink ref="H108" r:id="rId19" display="https://promedmail.org/promed-post/?id=8715544" xr:uid="{EB60CD9E-90BE-F24B-942F-EDFFF397070F}"/>
+    <hyperlink ref="H79" r:id="rId20" xr:uid="{971F10B1-6F65-6D45-BFE2-0B8074F198E4}"/>
+    <hyperlink ref="H87" r:id="rId21" display="https://promedmail.org/promed-post/?id=8715429" xr:uid="{50D841B6-8501-3541-9D2B-068DA1BD0CD9}"/>
+    <hyperlink ref="H66" r:id="rId22" xr:uid="{0A1C2D38-E08E-2544-A776-8D68EE55B4E0}"/>
+    <hyperlink ref="H107" r:id="rId23" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{287F608C-8243-9341-A271-E24CD33CE9C7}"/>
+    <hyperlink ref="H106" r:id="rId24" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{8C3FC823-A403-D546-85D6-ECF0C899B4BC}"/>
+    <hyperlink ref="H105" r:id="rId25" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{C9629103-E7B8-694D-BD65-0C51C88F2546}"/>
+    <hyperlink ref="H104" r:id="rId26" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{2A3A9F80-5043-C74A-BB53-D9F7D23DFBDE}"/>
+    <hyperlink ref="H103" r:id="rId27" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{CFDAA316-DD09-3E4C-BC39-9BB2C6BBEC2B}"/>
+    <hyperlink ref="H102" r:id="rId28" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{C649B4B8-F1C3-354F-9830-548597BCCBFF}"/>
+    <hyperlink ref="H101" r:id="rId29" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{616C4884-C985-0D4D-AD3D-740EE640B997}"/>
+    <hyperlink ref="H100" r:id="rId30" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{63CFDBDB-3E5B-3C41-A9F8-E9A18ECE14A2}"/>
+    <hyperlink ref="H99" r:id="rId31" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{1527C260-E204-754D-AE1D-9AE2D8FE69A4}"/>
+    <hyperlink ref="H98" r:id="rId32" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{DD21F0B9-54D3-A74E-B6F4-82B5B53F1C35}"/>
+    <hyperlink ref="H97" r:id="rId33" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{07DA59A2-F5D9-DC48-98E2-CD54AE86143F}"/>
+    <hyperlink ref="H125" r:id="rId34" display="https://promedmail.org/promed-post?place=8715079,50" xr:uid="{72EC3A22-05A8-8A4B-872B-BE428196D7C6}"/>
+    <hyperlink ref="H138" r:id="rId35" xr:uid="{A78A50CF-0927-5045-B49F-AEEF21696023}"/>
+    <hyperlink ref="H139" r:id="rId36" xr:uid="{89DED1A0-5536-7749-ABFB-C4F5E0155209}"/>
+    <hyperlink ref="H140" r:id="rId37" display="https://promedmail.org/promed-post?place=8715221,41" xr:uid="{DF497C88-60FC-CF43-A8C9-C62E6AB43533}"/>
+    <hyperlink ref="H144" r:id="rId38" display="https://promedmail.org/promed-post?place=8715430,28188" xr:uid="{200F4F19-0EAF-154A-88B7-5EBDBF2FD9EB}"/>
+    <hyperlink ref="H145" r:id="rId39" display="https://promedmail.org/promed-post?place=8715437,38681" xr:uid="{DB007E1E-7044-4F43-94EF-98E07C54551A}"/>
+    <hyperlink ref="H146" r:id="rId40" display="https://promedmail.org/promed-post?place=8715515,6075" xr:uid="{420460F0-9402-2944-931D-4F6B22D9C33B}"/>
+    <hyperlink ref="H147" r:id="rId41" display="https://promedmail.org/promed-post?place=8715531,6075" xr:uid="{4AA9AE34-48FB-EA44-AE34-AD153535878D}"/>
+    <hyperlink ref="H148" r:id="rId42" display="https://promedmail.org/promed-post?place=8715576,62" xr:uid="{673BD477-FA72-E844-A06C-0A43C11100BE}"/>
+    <hyperlink ref="H149" r:id="rId43" display="https://promedmail.org/promed-post?place=8715674,9888" xr:uid="{A300FE0A-F273-A84F-9B66-ACD15245AE65}"/>
+    <hyperlink ref="H150" r:id="rId44" display="https://promedmail.org/promed-post?place=8715722,8402" xr:uid="{F2A0012B-7053-A743-8EBA-9D65D2BE85CC}"/>
+    <hyperlink ref="H153" r:id="rId45" display="https://promedmail.org/promed-post?place=8715779,194" xr:uid="{DD3AFECE-D8C1-2045-93A9-1EFC634273E1}"/>
+    <hyperlink ref="H154" r:id="rId46" display="https://promedmail.org/promed-post?place=8715855,68888" xr:uid="{667FCDD6-F299-9740-B845-13D9EEBD0AFA}"/>
+    <hyperlink ref="H155" r:id="rId47" xr:uid="{87CF0E07-8B1F-D347-9574-FFA34D630D7F}"/>
+    <hyperlink ref="H116" r:id="rId48" display="https://www.mesvaccins.net/web/news/21586-fievre-jaune-dans-l-etat-d-equatoria-occidental-au-soudan-du-sud-18-cas-signales-a-ce-jour" xr:uid="{8C60447E-8A08-6C43-8092-27C825C989FF}"/>
+    <hyperlink ref="H118" r:id="rId49" display="https://www.mesvaccins.net/web/news/21623-l-epidemie-de-cholera-continue-de-s-etendre-en-zambie" xr:uid="{25123355-9275-0944-8ADA-833A4507433A}"/>
+    <hyperlink ref="H117" r:id="rId50" xr:uid="{515929E4-6B44-B945-8351-E3AFFEB62D0C}"/>
+    <hyperlink ref="H119" r:id="rId51" xr:uid="{04A66AB3-4378-9348-8F89-D1DD8AC70063}"/>
+    <hyperlink ref="H120" r:id="rId52" display="https://www.mesvaccins.net/web/news/21643-un-deces-humain-du-a-la-rage-signale-en-tunisie" xr:uid="{435E3A34-9BF8-454E-A6E9-152B2834E5F8}"/>
+    <hyperlink ref="H121" r:id="rId53" display="https://www.mesvaccins.net/web/news/21717-ouganda-trois-foyers-de-charbon-et-trois-deces-signales-en-2024" xr:uid="{B979CD76-F1C4-174F-A388-0EB304FDAEB6}"/>
+    <hyperlink ref="H122" r:id="rId54" display="https://www.mesvaccins.net/web/news/21718-plusieurs-cas-de-fievre-hemorragique-de-crimee-congo-en-ouganda" xr:uid="{23AF6A8E-8974-8C46-8184-4AEFAC086F92}"/>
+    <hyperlink ref="H123" r:id="rId55" display="https://www.mesvaccins.net/web/news/21732-nouvelle-epidemie-de-peste-dans-la-province-d-ituri-en-republique-democratique-du-congo" xr:uid="{AFB365EA-15F6-7E47-98A7-2AB0F640B4D2}"/>
+    <hyperlink ref="H126" r:id="rId56" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{A1466686-19FA-F243-B103-E283080A0DC6}"/>
+    <hyperlink ref="H127" r:id="rId57" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{F03CDE3A-5F5B-4A41-8BB5-A8A13CAA90C1}"/>
+    <hyperlink ref="H128" r:id="rId58" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{FB983DA3-D009-DA45-ABD8-F6ACCF2249CC}"/>
+    <hyperlink ref="H129" r:id="rId59" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{52ABAF8D-3F46-084E-8FEB-FCF1AD540FE0}"/>
+    <hyperlink ref="H130" r:id="rId60" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{BE1D2664-4DF8-A641-BD0E-D7719223C3E2}"/>
+    <hyperlink ref="H131" r:id="rId61" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{A197038A-F09C-5245-A0DB-1BF240733507}"/>
+    <hyperlink ref="H132" r:id="rId62" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{62258FCB-2332-A64D-BBB5-6308B0C21271}"/>
+    <hyperlink ref="H133" r:id="rId63" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{55840D3C-FB1D-1A47-BDDC-26987951B7D8}"/>
+    <hyperlink ref="H134" r:id="rId64" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{123056B9-D1CA-F344-949B-E32FC571B095}"/>
+    <hyperlink ref="H135" r:id="rId65" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{07E53D16-0D7D-164C-BABB-490DD4B4336E}"/>
+    <hyperlink ref="H136" r:id="rId66" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{849CA073-B07F-A643-8CE4-B7FDD5BF5B14}"/>
+    <hyperlink ref="H137" r:id="rId67" display="https://promedmail.org/promed-post?place=8715092,6075" xr:uid="{3D997F8C-354F-3D41-AD89-E7D1688C1687}"/>
+    <hyperlink ref="H142" r:id="rId68" display="https://reliefweb.int/report/nigeria/who-african-region-health-emergency-situation-report-multi-country-outbreak-diphtheria-consolidated-regional-situation-report-006-february-25-2024" xr:uid="{9077D1C7-3F65-F040-B693-BD750D51650E}"/>
+    <hyperlink ref="H143" r:id="rId69" display="https://reliefweb.int/report/nigeria/who-african-region-health-emergency-situation-report-multi-country-outbreak-diphtheria-consolidated-regional-situation-report-006-february-25-2024" xr:uid="{11D76A3C-06C5-EE4F-B0C2-5EACB67C4A92}"/>
+    <hyperlink ref="H141" r:id="rId70" display="https://reliefweb.int/report/nigeria/who-african-region-health-emergency-situation-report-multi-country-outbreak-diphtheria-consolidated-regional-situation-report-006-february-25-2024" xr:uid="{EC8164F9-1CEE-054C-B82B-90A811EAB322}"/>
+    <hyperlink ref="H157" r:id="rId71" display="https://promedmail.org/promed-post?place=8715382,186" xr:uid="{436F0F37-741F-EF42-A128-8A0E39438366}"/>
+    <hyperlink ref="H158" r:id="rId72" display="https://promedmail.org/promed-post?place=8715736,285" xr:uid="{3E3106D6-6BB9-4F4F-B867-3D8FC59D3300}"/>
+    <hyperlink ref="H159" r:id="rId73" display="https://wwwnc.cdc.gov/travel/notices/level2/chikungunya-timor-leste" xr:uid="{28C2636C-7CE2-0A4B-87A2-BA1F050453FB}"/>
+    <hyperlink ref="H156" r:id="rId74" display="https://www.mesvaccins.net/web/news/21621-plusieurs-cas-de-melioidose-dont-un-mortel-dans-le-queensland-en-australie" xr:uid="{F588F336-BC0A-F847-AA34-AE16E4AAF733}"/>
+    <hyperlink ref="H167" r:id="rId75" display="https://promedmail.org/promed-post?place=8715129,4" xr:uid="{215A3A0C-BB7B-6141-ADF8-23FDDF8DEF68}"/>
+    <hyperlink ref="H168" r:id="rId76" display="https://promedmail.org/promed-post?place=8715147,260" xr:uid="{0AA528C1-C26E-6C4C-AED5-95B5FA293920}"/>
+    <hyperlink ref="H169" r:id="rId77" xr:uid="{DC0491F1-B72C-0E46-BD2C-E0C104244834}"/>
+    <hyperlink ref="H170" r:id="rId78" xr:uid="{7926B09D-222E-3143-88AD-3005260ADDB4}"/>
+    <hyperlink ref="H172" r:id="rId79" xr:uid="{2229758F-6985-8F42-ADB8-7CB38BA94C98}"/>
+    <hyperlink ref="H171" r:id="rId80" xr:uid="{7C4E95C3-9EC9-684B-AD3B-192AF7BA8D59}"/>
+    <hyperlink ref="H178" r:id="rId81" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{C81B2E9A-4DA0-E041-A999-F496DCE7FABB}"/>
+    <hyperlink ref="H179" r:id="rId82" xr:uid="{4C677526-BAD0-C549-951A-57B756E21603}"/>
+    <hyperlink ref="H180" r:id="rId83" display="https://promedmail.org/promed-post?place=8715438,12" xr:uid="{F2764E00-C2EC-F844-B4FF-A9D7425CFBBD}"/>
+    <hyperlink ref="H181" r:id="rId84" xr:uid="{9CA52070-09DF-4241-91D1-12113DFB013F}"/>
+    <hyperlink ref="H182" r:id="rId85" display="https://promedmail.org/promed-post?place=8715591,241" xr:uid="{FFAB4579-D0E0-0848-A688-7B908CC464A4}"/>
+    <hyperlink ref="H185" r:id="rId86" display="https://promedmail.org/promed-post?place=8715625,52913" xr:uid="{333D3E05-3B5D-4B4A-B585-7C00BF6E3207}"/>
+    <hyperlink ref="H186" r:id="rId87" display="https://promedmail.org/promed-post?place=8715627,41725" xr:uid="{8D018CBD-A3E9-EC42-B8CB-FD4EE2F9CC1A}"/>
+    <hyperlink ref="H187" r:id="rId88" display="https://promedmail.org/promed-post?place=8715662,11" xr:uid="{6004488D-217D-144D-9ED0-6BBD7FC96BAD}"/>
+    <hyperlink ref="H188" r:id="rId89" display="https://promedmail.org/promed-post?place=8715698,240" xr:uid="{A06AA0C1-2D16-BC41-87C6-FABA31E99717}"/>
+    <hyperlink ref="H193" r:id="rId90" xr:uid="{24B60AD5-9278-294B-8944-37E563BA2C91}"/>
+    <hyperlink ref="H194" r:id="rId91" display="https://promedmail.org/promed-post?place=8715779,274" xr:uid="{5684E22F-E0AA-4F49-A567-13BAA6DA8B7D}"/>
+    <hyperlink ref="H195" r:id="rId92" display="https://promedmail.org/promed-post?place=8715796,204" xr:uid="{59647129-4070-D441-82CC-CAF5DFECCA4D}"/>
+    <hyperlink ref="H196" r:id="rId93" display="https://promedmail.org/promed-post?place=8715849,985" xr:uid="{A2CC45AF-CD03-8D49-B586-1C6262AD8AFD}"/>
+    <hyperlink ref="H198" r:id="rId94" xr:uid="{739B5ADC-94A5-1D4F-9E1B-F775EB9FAB98}"/>
+    <hyperlink ref="H199" r:id="rId95" display="https://promedmail.org/promed-post?place=8715929,6" xr:uid="{0F3BB63F-EE3F-0D42-9421-DF0B08FC24A0}"/>
+    <hyperlink ref="H192" r:id="rId96" display="https://promedmail.org/promed-post?place=8715709,520" xr:uid="{159F5228-1FB7-334F-8E29-C41D5B3991C6}"/>
+    <hyperlink ref="H200" r:id="rId97" display="https://promedmail.org/promed-post?place=8715942,4" xr:uid="{BEA28BAD-285A-1B45-A541-092380F82642}"/>
+    <hyperlink ref="H197" r:id="rId98" display="https://www.cdc.gov/listeria/outbreaks/cheese-02-24/index.html" xr:uid="{0B4CD74D-4BEE-6F41-812F-22A5A1817A31}"/>
+    <hyperlink ref="H161" r:id="rId99" display="https://www.mesvaccins.net/web/news/21652-chili-premier-cas-d-infection-a-hantavirus-dans-la-region-de-la-araucania-signale-en-2024" xr:uid="{97F940F3-810A-3F40-9D62-09CCCB278CE1}"/>
+    <hyperlink ref="H163" r:id="rId100" display="https://www.mesvaccins.net/web/news/21663-un-cas-de-peste-humaine-signale-en-oregon-etats-unis" xr:uid="{42EC37F7-F9FC-914D-9C41-6BAB1247A29B}"/>
+    <hyperlink ref="H162" r:id="rId101" display="https://www.mesvaccins.net/web/news/21661-etat-d-alerte-vis-a-vis-de-la-dengue-au-bresil" xr:uid="{A9FE8C85-DD92-964B-AF20-A971246E528A}"/>
+    <hyperlink ref="H164" r:id="rId102" display="https://www.mesvaccins.net/web/news/21670-l-alaska-rapporte-le-premier-deces-du-a-un-alaskapox-virus" xr:uid="{0213AEFD-1C8B-5347-9DC6-895076298C14}"/>
+    <hyperlink ref="H165" r:id="rId103" display="https://www.mesvaccins.net/web/news/21696-alerte-a-la-coqueluche-a-new-york" xr:uid="{6165B223-1B2B-8F46-A6DE-79BA361E62DD}"/>
+    <hyperlink ref="H166" r:id="rId104" display="https://www.mesvaccins.net/web/news/21746-le-costa-rica-signale-une-augmentation-de-1-260-des-cas-de-dengue-au-cours-des-six-premieres-semaines-de-2024" xr:uid="{840AD03E-6561-7744-B8A8-0B62AC8A3F81}"/>
+    <hyperlink ref="H160" r:id="rId105" display="https://www.mesvaccins.net/web/news/21592-en-bolivie-deux-cas-d-infection-a-hantavirus-dont-un-deces-signales-dans-le-departement-de-cochabamba" xr:uid="{885BB686-A43B-9144-883A-F571C22757CE}"/>
+    <hyperlink ref="H173" r:id="rId106" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{AFBE9634-54D6-CC4B-91D5-28F8D0D8D743}"/>
+    <hyperlink ref="H174" r:id="rId107" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{FF8EAE69-DDAC-9348-A655-870EE53DE6D1}"/>
+    <hyperlink ref="H175" r:id="rId108" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{41997EDB-32E6-2A40-911A-E63420F02810}"/>
+    <hyperlink ref="H176" r:id="rId109" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{C5B75957-2687-0C4B-A7DA-F60816E06CAE}"/>
+    <hyperlink ref="H177" r:id="rId110" display="https://promedmail.org/promed-post?place=8715215,52913" xr:uid="{5D25EAAD-7796-4240-9467-13BDAEF73473}"/>
+    <hyperlink ref="H183" r:id="rId111" display="https://promedmail.org/promed-post?place=8715625,52913" xr:uid="{F2EC3F92-E6C4-7741-A0D7-CBB98417AD15}"/>
+    <hyperlink ref="H184" r:id="rId112" display="https://promedmail.org/promed-post?place=8715625,52913" xr:uid="{6BC51C18-40F0-914B-8124-8C949BB43AB2}"/>
+    <hyperlink ref="H189" r:id="rId113" display="https://promedmail.org/promed-post?place=8715715,52913" xr:uid="{73EA6A4B-AF7E-E94B-BB5B-67E4A14CF920}"/>
+    <hyperlink ref="H190" r:id="rId114" display="https://promedmail.org/promed-post?place=8715715,52913" xr:uid="{9E83AE74-ABD6-C248-81F6-B70C320E8790}"/>
+    <hyperlink ref="H191" r:id="rId115" display="https://promedmail.org/promed-post?place=8715715,52913" xr:uid="{3C0F73B0-F0A9-494F-B621-D902E6CD2083}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Veille emergences avril 2024 clean.xlsx
+++ b/Veille emergences avril 2024 clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benedictemelot/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A565293-E8F0-A842-B311-029DC4648B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB8B97-8F19-1B47-AF64-4EAC73647DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,12 +231,6 @@
     <t>Varicelle</t>
   </si>
   <si>
-    <t>As the chickenpox [varicella] epidemic is spreading in northern provinces such as Lao Cai and Yen Bai, hundreds of people are infected with the disease which killed one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-country outbreak of _Salmonella_ Mbandaka ST413 linked to consumption of chicken meat products in the EU/EEA and the UK. The shelf lives of contaminated frozen chicken meat products expired in November and December 2023. The most recent cases were detected in Finland in October 2023 and in the UK in February 2024. </t>
-  </si>
-  <si>
     <t>https://promedmail.org/promed-post/?id=8715565</t>
   </si>
   <si>
@@ -253,9 +247,6 @@
   </si>
   <si>
     <t>SFTS</t>
-  </si>
-  <si>
-    <t>According to the Health Board, this year [2024] the first case of tick-borne encephalitis was registered in Saaremaa [Saare County]. According to the [Estonian] Department of Health, the number of tick-borne encephalitis cases has almost tripled over the past 3 years.</t>
   </si>
   <si>
     <t>According to an internal medicine and infectious diseases physician Dr. Nizar Bahbari, the rise of hepatitis B infection in Makkah and Jeddah areas, which, according to Saudi Ministry of Health statistics, reached 938 cases in Jeddah and 648 cases in Makkah in 2022, could be attributed to Hajji foreigners who prefer to stay after Hajj and Umrah seasons, plus other unsafe practices of dental care, beauty salons, and drugs.</t>
@@ -662,9 +653,6 @@
     <t>https://promedmail.org/promed-post/?id=8715903</t>
   </si>
   <si>
-    <t>A 76-year-old woman infected with Yezo virus (YEZV) developed liver dysfunction and thrombocytopenia following a tick bite. Despite the severity of her elevated liver enzymes and reduced platelet counts, the patient's condition improved spontaneously without any specific treatment. To our knowledge, this represents the first documented case where the YEZV genome was detected simultaneously in a patient's serum and the tick (_Ixodes persulcatus_) that bit the patient.</t>
-  </si>
-  <si>
     <t>https://promedmail.org/promed-post/?id=8715918</t>
   </si>
   <si>
@@ -2463,124 +2451,136 @@
     <t>green</t>
   </si>
   <si>
-    <t>Two cases of botulism registered in Irkutsk after eating congreened mushrooms</t>
-  </si>
-  <si>
     <t>1er décès lié à un Alaskapox virus. Homme âgé, immunodéprimé sous chimio pour un cancer solide. Initialement papule de l'aisselle droite biopsiée suivi d'un défaut de cicatrisation. Myosite, nouvelles lésions sur le corps, puis dénutrition, insuffisance rénale aigue et respiratoire. Virus décougreen en 2015, habituellement responsable d'éruption cutanée localisée et une lymphadénopathie. 9 cas humains décrits.</t>
   </si>
   <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>Record high pertussis epidemic in Denmark from August 2023 to February 2024, with the highest increase in incidence among adolescents. Peak observed in November had an incidence of 337 cases per 100,000 population. The incidence declined in January and February 2024.The incidence among infants was lower during the 2023 epidemic compared with previous epidemics, possibly as a result of pregnant women being vaccinated against pertussis. Overall, few were hospitalised, but among infants aged 0–2 months, 60% were hospitalised and one infant died, underlining the severity of the disease for this age group.. Among children under 2 years with pertussis in 2023, 37.9% (78/206) were unvaccinated, 48.1% (99/206) had received one or two vaccinations, and 14.1% (29/206) had received all vaccines before 2 years of age. Approximately 85% of pregnant women in Denmark were vaccinated from August to December (week 31–52) in 2023</t>
-  </si>
-  <si>
-    <t>redole</t>
-  </si>
-  <si>
-    <t>https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-redole-en-europe-en-2024</t>
-  </si>
-  <si>
-    <t>Au total, entre la semaine 52/2023 et la semaine 6/2024 , # 141 cas de redole</t>
-  </si>
-  <si>
-    <t>https://www.mesvaccins.net/web/news/21766-flambee-de-redole-dans-la-federation-de-bosnie-herzegovine-dans-un-contexte-de-sous-vaccination</t>
+    <t>Alerte moyenne</t>
+  </si>
+  <si>
+    <t>Alerte élevée</t>
+  </si>
+  <si>
+    <t>Alerte faible</t>
+  </si>
+  <si>
+    <t>Two cases of botulism registeRouge in Irkutsk after eating congreened mushrooms</t>
+  </si>
+  <si>
+    <t>Rouge</t>
+  </si>
+  <si>
+    <t>Record high pertussis epidemic in Denmark from August 2023 to February 2024, with the highest increase in incidence among adolescents. Peak observed in November had an incidence of 337 cases per 100,000 population. The incidence declined in January and February 2024.The incidence among infants was lower during the 2023 epidemic compaRouge with previous epidemics, possibly as a result of pregnant women being vaccinated against pertussis. Overall, few were hospitalised, but among infants aged 0–2 months, 60% were hospitalised and one infant died, underlining the severity of the disease for this age group.. Among children under 2 years with pertussis in 2023, 37.9% (78/206) were unvaccinated, 48.1% (99/206) had received one or two vaccinations, and 14.1% (29/206) had received all vaccines before 2 years of age. Approximately 85% of pregnant women in Denmark were vaccinated from August to December (week 31–52) in 2023</t>
+  </si>
+  <si>
+    <t>Rougeole</t>
+  </si>
+  <si>
+    <t>https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-Rougeole-en-europe-en-2024</t>
+  </si>
+  <si>
+    <t>Au total, entre la semaine 52/2023 et la semaine 6/2024 , # 141 cas de Rougeole</t>
+  </si>
+  <si>
+    <t>https://www.mesvaccins.net/web/news/21766-flambee-de-Rougeole-dans-la-federation-de-bosnie-herzegovine-dans-un-contexte-de-sous-vaccination</t>
   </si>
   <si>
     <t>https://promedmail.org/promed-post/?id=8715825
-https://www.mesvaccins.net/web/news/21907-la-redole-en-angleterre-et-aux-etats-unis-en-2024</t>
-  </si>
-  <si>
-    <t>249 cas confirmés de redole entre le 1er janvier 2024 et le 8 mars 2024, soit une augmentation de 219 cas depuis le 2 février.
+https://www.mesvaccins.net/web/news/21907-la-Rougeole-en-angleterre-et-aux-etats-unis-en-2024</t>
+  </si>
+  <si>
+    <t>249 cas confirmés de Rougeole entre le 1er janvier 2024 et le 8 mars 2024, soit une augmentation de 219 cas depuis le 2 février.
 75 cas confirmés signalés entre le 1er janvier et le 13 février. Ce chiffre est à comparer aux 10 cas signalés en Autriche au cours d'une période similaire en 2023. Le Tyrol (27 cas) est l'État le plus touché, suivi de Vienne (25 cas), de la Basse-Autriche (9 cas), du Burgenland (6 cas), de la Styrie (5 cas) et de la Haute-Autriche (3 cas).</t>
   </si>
   <si>
-    <t>https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-redole-en-europe-en-2024
-https://www.mesvaccins.net/web/news/21690-autriche-activite-elevee-de-la-redole-dans-plusieurs-regions-en-particulier-au-tyrol-et-a-vienne-en-fevrier</t>
-  </si>
-  <si>
-    <t>85 cas suspects et confirmés de redole en 2024 pour les semaines 1 à 10 (données au 11 mars 2024). Cela représente une augmentation de 63 cas depuis la semaine 5 de 2024 (données disponibles le 5 février 2024).</t>
-  </si>
-  <si>
-    <t>18 cas de redole entre le 1er janvier et le 3 mars 2024 (bulletin hebdomadaire n°10), soit une augmentation de 16 cas depuis le 28 janvier 2024. Parmi les cas déclarés, six étaient importés, cinq étaient liés à des cas importés et pour deux cas, le statut d'importation était inconnu. En 2023, l'Espagne a déclaré 11 cas de redole.</t>
-  </si>
-  <si>
-    <t>7 243 cas de redole, dont huit décès au 5 mars 2024, soit une augmentation de 3 038 cas et de deux décès depuis la mise à jour du 30 janvier 2024.</t>
-  </si>
-  <si>
-    <t>Al Sadaqa hospital has mentioned the admission, during the previous 10 days, of 106 cases of acute watery diarrhea, of which 22 cases have been laboratory confirmed as positive cases of cholera. In this regard, the United Nations announced Monday [1 Apr 2024] that Yemen recorded 6 deaths from cholera, compared to recording more than 1500 suspected cases and 9 confirmed cases of the disease in 15 governorates during the period from 1 Jan to 17 Mar 2024.</t>
-  </si>
-  <si>
-    <t>Over the period from October last year [2023] until now [Wed 6 Mar 2024], Nineveh Governorate recorded an unprecedented rise in cases of infectious measles disease among children and adults. A medical source in Nineveh said, "Hospitals in the governorate have recorded hundreds of measles cases since the beginning of this year [2024] until now." The source stated that "Mosul hospitals, especially Ibn al-Atheer Specialized Hospital for Children, receive between 400 and 500 measles cases monthly," pointing out that "the increase in infection rates began to be recorded from last October [2023] until now."</t>
+    <t>https://www.mesvaccins.net/web/news/21914-poursuite-de-la-transmission-de-la-Rougeole-en-europe-en-2024
+https://www.mesvaccins.net/web/news/21690-autriche-activite-elevee-de-la-Rougeole-dans-plusieurs-regions-en-particulier-au-tyrol-et-a-vienne-en-fevrier</t>
+  </si>
+  <si>
+    <t>85 cas suspects et confirmés de Rougeole en 2024 pour les semaines 1 à 10 (données au 11 mars 2024). Cela représente une augmentation de 63 cas depuis la semaine 5 de 2024 (données disponibles le 5 février 2024).</t>
+  </si>
+  <si>
+    <t>18 cas de Rougeole entre le 1er janvier et le 3 mars 2024 (bulletin hebdomadaire n°10), soit une augmentation de 16 cas depuis le 28 janvier 2024. Parmi les cas déclarés, six étaient importés, cinq étaient liés à des cas importés et pour deux cas, le statut d'importation était inconnu. En 2023, l'Espagne a déclaré 11 cas de Rougeole.</t>
+  </si>
+  <si>
+    <t>7 243 cas de Rougeole, dont huit décès au 5 mars 2024, soit une augmentation de 3 038 cas et de deux décès depuis la mise à jour du 30 janvier 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-country outbreak of _Salmonella_ Mbandaka ST413 linked to consumption of chicken meat products in the EU/EEA and the UK. The shelf lives of contaminated frozen chicken meat products expiRouge in November and December 2023. The most recent cases were detected in Finland in October 2023 and in the UK in February 2024. </t>
+  </si>
+  <si>
+    <t>According to the Health Board, this year [2024] the first case of tick-borne encephalitis was registeRouge in Saaremaa [Saare County]. According to the [Estonian] Department of Health, the number of tick-borne encephalitis cases has almost tripled over the past 3 years.</t>
+  </si>
+  <si>
+    <t>Al Sadaqa hospital has mentioned the admission, during the previous 10 days, of 106 cases of acute watery diarrhea, of which 22 cases have been laboratory confirmed as positive cases of cholera. In this regard, the United Nations announced Monday [1 Apr 2024] that Yemen recorded 6 deaths from cholera, compaRouge to recording more than 1500 suspected cases and 9 confirmed cases of the disease in 15 governorates during the period from 1 Jan to 17 Mar 2024.</t>
+  </si>
+  <si>
+    <t>Over the period from October last year [2023] until now [Wed 6 Mar 2024], Nineveh Governorate recorded an unprecedented rise in cases of infectious measles disease among children and adults. A medical source in Nineveh said, "Hospitals in the governorate have recorded hundRouges of measles cases since the beginning of this year [2024] until now." The source stated that "Mosul hospitals, especially Ibn al-Atheer Specialized Hospital for Children, receive between 400 and 500 measles cases monthly," pointing out that "the increase in infection rates began to be recorded from last October [2023] until now."</t>
   </si>
   <si>
     <t>https://wwwnc.cdc.gov/travel/notices/level1/measles-globe
-https://www.mesvaccins.net/web/news/21825-mise-a-jour-des-pays-avec-epidemie-de-redole-au-15-mars-2024</t>
-  </si>
-  <si>
-    <t>Several cases of measles were registered in Igdir province, eastern Turkey, which were thought to have been contracted from Syrian or Afghani residents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On 27 January 2024, the National Health Commission of the People’s Republic of China notified the World Health Organization (WHO) of one confirmed case of human coinfection with avian influenza A(H10N5) virus and seasonal influenza A(H3N2) virus. This is the first case of human infection with avian influenza A(H10N5) virus reported globally. The case occurred in a female farmer over 60 years of age, with a history of chronic comorbidities, from Xuancheng Prefecture, Anhui Province. She had onset of symptoms on 30 November 2023 and passed away on 16 December 2023. The authorities isolated seasonal influenza A(H3N2) subtype and avian influenza A(H10N5) subtype viruses from the patient’s samples on 22 January 2024, which were affirmed in confirmatory testing on 26 January 2024. The patient had exposure to live poultry, and poultry samples also tested positive for H10N5. No new suspected human cases have been detected through the investigation and testing done by authorities. Currently available epidemiologic information suggests that avian influenza A(H10Nx) viruses have not acquired the capacity for sustained transmission among humans. Thus, the likelihood of human-to-human spread is considered low. </t>
-  </si>
-  <si>
-    <t>In epidemiological week 11 of 2024 (11 March to 17 March 2024), 170 dengue cases and zero deaths were reported (Figure 3). The number of reported cases is higher than the numbers reported in epidemiological week 10 (158 cases with no deaths), and higher than those in week 11 of 2023 (44 cases with no deaths). The cumulative number of cases reported in 2024 (as of epidemiological week 11) is 1,499. This is a 167.1% increase compared to the 542 cases reported during the same period in 2023.</t>
-  </si>
-  <si>
-    <t>The cumulative number of dengue cases reported up to week 7 of 2024 is 25,541 cases, which is an increase of 67.5% compared to 15,243 cases for the same period in 2023. 14 dengue-related deaths were reported up to week 7 of 2024 compared to 13 deaths for the same period in 2023.</t>
-  </si>
-  <si>
-    <t>According to the Ministry of Health, rabies killed 22 people in Viet Nam over the January-February [2024] period, compared to 10 cases recorded from a year ago [2023].</t>
-  </si>
-  <si>
-    <t>un total de 3 570 cas signalés entre le 1er janvier et le 19 février. Ce chiffre est à comparer aux 41 cas de redole signalés au cours d'une période similaire en 2023.</t>
-  </si>
-  <si>
-    <t>https://www.mesvaccins.net/web/news/21769-pres-de-4-000-cas-de-redole-signales-au-kirghizistan-en-2024</t>
+https://www.mesvaccins.net/web/news/21825-mise-a-jour-des-pays-avec-epidemie-de-Rougeole-au-15-mars-2024</t>
+  </si>
+  <si>
+    <t>Several cases of measles were registeRouge in Igdir province, eastern Turkey, which were thought to have been contracted from Syrian or Afghani residents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On 27 January 2024, the National Health Commission of the People’s Republic of China notified the World Health Organization (WHO) of one confirmed case of human coinfection with avian influenza A(H10N5) virus and seasonal influenza A(H3N2) virus. This is the first case of human infection with avian influenza A(H10N5) virus reported globally. The case occurRouge in a female farmer over 60 years of age, with a history of chronic comorbidities, from Xuancheng Prefecture, Anhui Province. She had onset of symptoms on 30 November 2023 and passed away on 16 December 2023. The authorities isolated seasonal influenza A(H3N2) subtype and avian influenza A(H10N5) subtype viruses from the patient’s samples on 22 January 2024, which were affirmed in confirmatory testing on 26 January 2024. The patient had exposure to live poultry, and poultry samples also tested positive for H10N5. No new suspected human cases have been detected through the investigation and testing done by authorities. Currently available epidemiologic information suggests that avian influenza A(H10Nx) viruses have not acquiRouge the capacity for sustained transmission among humans. Thus, the likelihood of human-to-human spread is consideRouge low. </t>
+  </si>
+  <si>
+    <t>In epidemiological week 11 of 2024 (11 March to 17 March 2024), 170 dengue cases and zero deaths were reported (Figure 3). The number of reported cases is higher than the numbers reported in epidemiological week 10 (158 cases with no deaths), and higher than those in week 11 of 2023 (44 cases with no deaths). The cumulative number of cases reported in 2024 (as of epidemiological week 11) is 1,499. This is a 167.1% increase compaRouge to the 542 cases reported during the same period in 2023.</t>
+  </si>
+  <si>
+    <t>The cumulative number of dengue cases reported up to week 7 of 2024 is 25,541 cases, which is an increase of 67.5% compaRouge to 15,243 cases for the same period in 2023. 14 dengue-related deaths were reported up to week 7 of 2024 compaRouge to 13 deaths for the same period in 2023.</t>
+  </si>
+  <si>
+    <t>According to the Ministry of Health, rabies killed 22 people in Viet Nam over the January-February [2024] period, compaRouge to 10 cases recorded from a year ago [2023].</t>
+  </si>
+  <si>
+    <t>un total de 3 570 cas signalés entre le 1er janvier et le 19 février. Ce chiffre est à comparer aux 41 cas de Rougeole signalés au cours d'une période similaire en 2023.</t>
+  </si>
+  <si>
+    <t>https://www.mesvaccins.net/web/news/21769-pres-de-4-000-cas-de-Rougeole-signales-au-kirghizistan-en-2024</t>
   </si>
   <si>
     <t>https://wwwnc.cdc.gov/travel/notices/level1/measles-globe
-https://www.mesvaccins.net/web/news/21825-mise-a-jour-des-pays-avec-epidemie-de-redole-au-15-mars-2024
+https://www.mesvaccins.net/web/news/21825-mise-a-jour-des-pays-avec-epidemie-de-Rougeole-au-15-mars-2024
 https://promedmail.org/promed-post/?id=8715392</t>
   </si>
   <si>
-    <t>https://bnnbreaking.com/breaking-news/health/hepatitis-e-outbreak-declared-in-warrap-state-south-sudan-following-toddlers-positive-test</t>
-  </si>
-  <si>
-    <t>recrudescence de cas de redole, attribués à l'hésitation vaccinale des parents</t>
-  </si>
-  <si>
-    <t>1562 détectés depuis janvier dans la région tropicale de l'Autrsalie (Queensland). Transmission par piqure de moustique. Manifestations cliniques: articulations douloureuses et enflées et douleurs musculaires et tendineuses. D'autres symptômes peuvent inclure de la fièvre, des maux de tête, de la fatigue, une éruption cutanée red en relief et des ganglions lymphatiques enflés. Parfois persistance des symptômes plusieurs mois.</t>
-  </si>
-  <si>
-    <t>4 cas de redole,( Toronto, Mississauga  Kitchener  Ontario) chez despersonnes  non vaccinées. Probablement liées à des contacts avec des voyageurs (4 autres cas en cours de confirmation)</t>
-  </si>
-  <si>
-    <t>Résumés des cas de redole en 2024 par le CDC: As of 29 Feb 2024, a total of 41 measles cases were reported by 16 jurisdictions: Arizona, California, Florida, Georgia, Indiana, Louisiana, Maryland, Michigan, Minnesota, Missouri, New Jersey, New York City, Ohio, Pennsylvania, Virginia, and Washington. Contre 58 en 2023.</t>
-  </si>
-  <si>
-    <t>60 cas de redole depuis début 2024</t>
-  </si>
-  <si>
-    <t>31  cas de redole depuis début 2024</t>
-  </si>
-  <si>
-    <t>Cas depuis début 2024: Guatemala. 6760 cases; Severe cases 31; Deaths 3. Panama. 2745 cases; Serious cases 14. Dominican Republic. 3889 cases in 1st 5 weeks of 2024. Puerto Rico.  549 cases, public health emergency declared. Argentina. 78 606 cases; Deaths 47 ;  Brazil: [A 30 Mar 2024 update reported 2 486 502 confirmed cases, 897 deaths with 1337 additional deaths under investigation. Health emergency declared. Peru. 79 741, 262,2% more than last year (2023); Deaths 82;  Ecuador. 11 492 cases; Deaths 15 with 6 adults, 9 children; Uruguay. 32 imported cases, 2 locally acquired cases.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 cas de redole à Chicago (14 adultes, 31 enfants &lt; 5 ans, 7 enfants de 5-17 ans), dont la majorité provient d'un camps de migrants. </t>
-  </si>
-  <si>
-    <t>Alerte moyenne</t>
-  </si>
-  <si>
-    <t>Alerte élevée</t>
-  </si>
-  <si>
-    <t>Alerte faible</t>
+    <t>As the chickenpox [varicella] epidemic is spreading in northern provinces such as Lao Cai and Yen Bai, hundRouges of people are infected with the disease which killed one.</t>
+  </si>
+  <si>
+    <t>A 76-year-old woman infected with Yezo virus (YEZV) developed liver dysfunction and thrombocytopenia following a tick bite. Despite the severity of her elevated liver enzymes and Rougeuced platelet counts, the patient's condition improved spontaneously without any specific treatment. To our knowledge, this represents the first documented case where the YEZV genome was detected simultaneously in a patient's serum and the tick (_Ixodes persulcatus_) that bit the patient.</t>
+  </si>
+  <si>
+    <t>https://bnnbreaking.com/breaking-news/health/hepatitis-e-outbreak-declaRouge-in-warrap-state-south-sudan-following-toddlers-positive-test</t>
+  </si>
+  <si>
+    <t>recrudescence de cas de Rougeole, attribués à l'hésitation vaccinale des parents</t>
+  </si>
+  <si>
+    <t>1562 détectés depuis janvier dans la région tropicale de l'Autrsalie (Queensland). Transmission par piqure de moustique. Manifestations cliniques: articulations douloureuses et enflées et douleurs musculaires et tendineuses. D'autres symptômes peuvent inclure de la fièvre, des maux de tête, de la fatigue, une éruption cutanée Rouge en relief et des ganglions lymphatiques enflés. Parfois persistance des symptômes plusieurs mois.</t>
+  </si>
+  <si>
+    <t>4 cas de Rougeole,( Toronto, Mississauga  Kitchener  Ontario) chez despersonnes  non vaccinées. Probablement liées à des contacts avec des voyageurs (4 autres cas en cours de confirmation)</t>
+  </si>
+  <si>
+    <t>Résumés des cas de Rougeole en 2024 par le CDC: As of 29 Feb 2024, a total of 41 measles cases were reported by 16 jurisdictions: Arizona, California, Florida, Georgia, Indiana, Louisiana, Maryland, Michigan, Minnesota, Missouri, New Jersey, New York City, Ohio, Pennsylvania, Virginia, and Washington. Contre 58 en 2023.</t>
+  </si>
+  <si>
+    <t>60 cas de Rougeole depuis début 2024</t>
+  </si>
+  <si>
+    <t>31  cas de Rougeole depuis début 2024</t>
+  </si>
+  <si>
+    <t>Cas depuis début 2024: Guatemala. 6760 cases; Severe cases 31; Deaths 3. Panama. 2745 cases; Serious cases 14. Dominican Republic. 3889 cases in 1st 5 weeks of 2024. Puerto Rico.  549 cases, public health emergency declaRouge. Argentina. 78 606 cases; Deaths 47 ;  Brazil: [A 30 Mar 2024 update reported 2 486 502 confirmed cases, 897 deaths with 1337 additional deaths under investigation. Health emergency declaRouge. Peru. 79 741, 262,2% more than last year (2023); Deaths 82;  Ecuador. 11 492 cases; Deaths 15 with 6 adults, 9 children; Uruguay. 32 imported cases, 2 locally acquiRouge cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 cas de Rougeole à Chicago (14 adultes, 31 enfants &lt; 5 ans, 7 enfants de 5-17 ans), dont la majorité provient d'un camps de migrants. </t>
+  </si>
+  <si>
+    <t>Orange</t>
   </si>
 </sst>
 </file>
@@ -3207,7 +3207,7 @@
   <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E200"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3227,28 +3227,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>453</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>454</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>455</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>457</v>
       </c>
       <c r="G1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>45376</v>
       </c>
@@ -3256,16 +3256,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>460</v>
@@ -3279,25 +3279,25 @@
         <v>45370</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -3305,25 +3305,25 @@
         <v>45323</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="154" x14ac:dyDescent="0.2">
@@ -3331,25 +3331,25 @@
         <v>45340</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.2">
@@ -3357,25 +3357,25 @@
         <v>45340</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="196" x14ac:dyDescent="0.2">
@@ -3386,22 +3386,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.2">
@@ -3409,25 +3409,25 @@
         <v>45386</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -3435,25 +3435,25 @@
         <v>45386</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="182" x14ac:dyDescent="0.2">
@@ -3461,28 +3461,28 @@
         <v>45385</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>45373</v>
       </c>
@@ -3490,22 +3490,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.2">
@@ -3513,25 +3513,25 @@
         <v>45386</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H12" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3542,16 +3542,16 @@
         <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>22</v>
@@ -3565,25 +3565,25 @@
         <v>45386</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>128</v>
-      </c>
       <c r="E14" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="319" x14ac:dyDescent="0.2">
@@ -3594,22 +3594,22 @@
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="319" x14ac:dyDescent="0.2">
@@ -3620,22 +3620,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="319" x14ac:dyDescent="0.2">
@@ -3646,22 +3646,22 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="319" x14ac:dyDescent="0.2">
@@ -3672,22 +3672,22 @@
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="319" x14ac:dyDescent="0.2">
@@ -3698,48 +3698,48 @@
         <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>45370</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D20" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>79</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -3747,25 +3747,25 @@
         <v>45327</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="182" x14ac:dyDescent="0.2">
@@ -3773,25 +3773,25 @@
         <v>45353</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="G22" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="E22" s="48" t="s">
-        <v>495</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>467</v>
-      </c>
       <c r="H22" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -3802,22 +3802,22 @@
         <v>4</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -3828,19 +3828,19 @@
         <v>4</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>55</v>
@@ -3854,22 +3854,22 @@
         <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G25" s="31" t="s">
         <v>44</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="332" x14ac:dyDescent="0.2">
@@ -3877,25 +3877,25 @@
         <v>45391</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -3903,25 +3903,25 @@
         <v>45391</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -3929,25 +3929,25 @@
         <v>45391</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -3955,25 +3955,25 @@
         <v>45391</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -3981,25 +3981,25 @@
         <v>45391</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -4010,22 +4010,22 @@
         <v>4</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>61</v>
+        <v>473</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -4036,22 +4036,22 @@
         <v>4</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>61</v>
+        <v>473</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="224" x14ac:dyDescent="0.2">
@@ -4062,22 +4062,22 @@
         <v>4</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>68</v>
+        <v>474</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -4088,16 +4088,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>52</v>
@@ -4114,16 +4114,16 @@
         <v>4</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>41</v>
@@ -4140,16 +4140,16 @@
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>45</v>
@@ -4166,22 +4166,22 @@
         <v>4</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="319" x14ac:dyDescent="0.2">
@@ -4192,22 +4192,22 @@
         <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -4224,10 +4224,10 @@
         <v>5</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>475</v>
@@ -4250,13 +4250,13 @@
         <v>8</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>17</v>
@@ -4267,7 +4267,7 @@
         <v>45318</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -4276,16 +4276,16 @@
         <v>6</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="98" x14ac:dyDescent="0.2">
@@ -4296,19 +4296,19 @@
         <v>15</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H42" s="21" t="s">
         <v>27</v>
@@ -4322,22 +4322,22 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -4351,13 +4351,13 @@
         <v>35</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>476</v>
@@ -4374,16 +4374,16 @@
         <v>2</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>12</v>
@@ -4400,16 +4400,16 @@
         <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>12</v>
@@ -4426,16 +4426,16 @@
         <v>2</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>12</v>
@@ -4452,16 +4452,16 @@
         <v>2</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>12</v>
@@ -4478,16 +4478,16 @@
         <v>2</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>12</v>
@@ -4504,16 +4504,16 @@
         <v>2</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>12</v>
@@ -4530,16 +4530,16 @@
         <v>2</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>12</v>
@@ -4556,16 +4556,16 @@
         <v>2</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>12</v>
@@ -4582,16 +4582,16 @@
         <v>2</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>12</v>
@@ -4608,16 +4608,16 @@
         <v>2</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>12</v>
@@ -4637,16 +4637,16 @@
         <v>14</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H55" s="21" t="s">
         <v>54</v>
@@ -4660,22 +4660,22 @@
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>478</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -4686,22 +4686,22 @@
         <v>4</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="285" x14ac:dyDescent="0.2">
@@ -4712,22 +4712,22 @@
         <v>4</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="225" x14ac:dyDescent="0.2">
@@ -4744,16 +4744,16 @@
         <v>37</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="306" x14ac:dyDescent="0.15">
@@ -4764,22 +4764,22 @@
         <v>15</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="196" x14ac:dyDescent="0.2">
@@ -4787,25 +4787,25 @@
         <v>45394</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="126" x14ac:dyDescent="0.2">
@@ -4816,16 +4816,16 @@
         <v>15</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E62" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G62" s="31" t="s">
         <v>479</v>
@@ -4842,22 +4842,22 @@
         <v>43</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -4865,25 +4865,25 @@
         <v>45388</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E64" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="210" x14ac:dyDescent="0.2">
@@ -4894,22 +4894,22 @@
         <v>4</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E65" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -4923,19 +4923,19 @@
         <v>49</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E66" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="150" x14ac:dyDescent="0.2">
@@ -4943,25 +4943,25 @@
         <v>45351</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E67" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="224" x14ac:dyDescent="0.2">
@@ -4969,25 +4969,25 @@
         <v>45386</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E68" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -4998,22 +4998,22 @@
         <v>15</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -5024,16 +5024,16 @@
         <v>2</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>13</v>
@@ -5050,22 +5050,22 @@
         <v>4</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -5076,22 +5076,22 @@
         <v>4</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -5102,22 +5102,22 @@
         <v>4</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E73" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="168" x14ac:dyDescent="0.2">
@@ -5128,19 +5128,19 @@
         <v>15</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>18</v>
@@ -5160,10 +5160,10 @@
         <v>8</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>480</v>
@@ -5180,16 +5180,16 @@
         <v>15</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>481</v>
@@ -5206,19 +5206,19 @@
         <v>4</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E77" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H77" s="19" t="s">
         <v>48</v>
@@ -5232,22 +5232,22 @@
         <v>4</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E78" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -5258,22 +5258,22 @@
         <v>4</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E79" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="300" x14ac:dyDescent="0.2">
@@ -5284,22 +5284,22 @@
         <v>4</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E80" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -5310,22 +5310,22 @@
         <v>15</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -5336,22 +5336,22 @@
         <v>15</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="80" x14ac:dyDescent="0.2">
@@ -5362,19 +5362,19 @@
         <v>4</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>36</v>
@@ -5385,25 +5385,25 @@
         <v>45349</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E84" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="225" x14ac:dyDescent="0.2">
@@ -5414,22 +5414,22 @@
         <v>4</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E85" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G85" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H85" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -5440,22 +5440,22 @@
         <v>4</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E86" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H86" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="266" x14ac:dyDescent="0.2">
@@ -5466,22 +5466,22 @@
         <v>4</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E87" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="165" x14ac:dyDescent="0.2">
@@ -5489,25 +5489,25 @@
         <v>45388</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E88" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H88" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="98" x14ac:dyDescent="0.2">
@@ -5518,19 +5518,19 @@
         <v>15</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E89" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>32</v>
@@ -5544,22 +5544,22 @@
         <v>4</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -5570,22 +5570,22 @@
         <v>4</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -5596,16 +5596,16 @@
         <v>4</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>482</v>
@@ -5628,16 +5628,16 @@
         <v>3</v>
       </c>
       <c r="E93" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -5648,22 +5648,22 @@
         <v>15</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F94" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -5671,19 +5671,19 @@
         <v>45354</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E95" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F95" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G95" s="15" t="s">
         <v>483</v>
@@ -5700,22 +5700,22 @@
         <v>4</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E96" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F96" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="266" x14ac:dyDescent="0.2">
@@ -5726,16 +5726,16 @@
         <v>2</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G97" s="15" t="s">
         <v>12</v>
@@ -5752,16 +5752,16 @@
         <v>2</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G98" s="15" t="s">
         <v>12</v>
@@ -5778,16 +5778,16 @@
         <v>2</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E99" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G99" s="15" t="s">
         <v>12</v>
@@ -5804,16 +5804,16 @@
         <v>2</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E100" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G100" s="15" t="s">
         <v>12</v>
@@ -5830,16 +5830,16 @@
         <v>2</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E101" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G101" s="15" t="s">
         <v>12</v>
@@ -5856,16 +5856,16 @@
         <v>2</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E102" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F102" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G102" s="15" t="s">
         <v>12</v>
@@ -5882,16 +5882,16 @@
         <v>2</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E103" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G103" s="15" t="s">
         <v>12</v>
@@ -5908,16 +5908,16 @@
         <v>2</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E104" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G104" s="15" t="s">
         <v>12</v>
@@ -5934,16 +5934,16 @@
         <v>2</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E105" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G105" s="15" t="s">
         <v>12</v>
@@ -5960,16 +5960,16 @@
         <v>2</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E106" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G106" s="15" t="s">
         <v>12</v>
@@ -5986,16 +5986,16 @@
         <v>2</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E107" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G107" s="15" t="s">
         <v>12</v>
@@ -6012,22 +6012,22 @@
         <v>4</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E108" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H108" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -6038,19 +6038,19 @@
         <v>10</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>11</v>
@@ -6064,22 +6064,22 @@
         <v>4</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E110" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H110" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="182" x14ac:dyDescent="0.2">
@@ -6087,25 +6087,25 @@
         <v>45309</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E111" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H111" s="20" t="s">
         <v>115</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="D111" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E111" s="48" t="s">
-        <v>495</v>
-      </c>
-      <c r="F111" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H111" s="20" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -6116,22 +6116,22 @@
         <v>4</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E112" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H112" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -6142,22 +6142,22 @@
         <v>4</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E113" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="210" x14ac:dyDescent="0.2">
@@ -6168,22 +6168,22 @@
         <v>4</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E114" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>60</v>
+        <v>486</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -6194,22 +6194,22 @@
         <v>4</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E115" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>171</v>
+        <v>487</v>
       </c>
       <c r="H115" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -6217,25 +6217,25 @@
         <v>45309</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E116" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F116" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -6243,25 +6243,25 @@
         <v>45319</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E117" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -6269,25 +6269,25 @@
         <v>45320</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E118" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -6295,51 +6295,51 @@
         <v>45327</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F119" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>45327</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E120" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -6347,25 +6347,25 @@
         <v>45341</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F121" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -6373,25 +6373,25 @@
         <v>45341</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F122" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -6399,25 +6399,25 @@
         <v>45344</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E123" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -6428,22 +6428,22 @@
         <v>4</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E124" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -6451,313 +6451,313 @@
         <v>45351</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E125" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E125" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="H125" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A126" s="11"/>
       <c r="B126" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E126" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F126" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A127" s="11"/>
       <c r="B127" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E127" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F127" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A128" s="11"/>
       <c r="B128" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E128" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F128" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A129" s="11"/>
       <c r="B129" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E129" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F129" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A130" s="11"/>
       <c r="B130" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A131" s="11"/>
       <c r="B131" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E131" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F131" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A132" s="11"/>
       <c r="B132" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F132" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A133" s="11"/>
       <c r="B133" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E133" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F133" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A134" s="11"/>
       <c r="B134" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E134" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F134" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A135" s="11"/>
       <c r="B135" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E135" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F135" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A136" s="11"/>
       <c r="B136" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E136" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F136" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A137" s="11"/>
       <c r="B137" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E137" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F137" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="168" x14ac:dyDescent="0.2">
@@ -6765,25 +6765,25 @@
         <v>45353</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F138" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -6791,25 +6791,25 @@
         <v>45356</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E139" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -6817,97 +6817,97 @@
         <v>45356</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E140" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F140" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="11"/>
       <c r="B141" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E141" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F141" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H141" s="41" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="11"/>
       <c r="B142" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E142" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F142" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H142" s="41" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="11"/>
       <c r="B143" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E143" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F143" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H143" s="41" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -6918,22 +6918,22 @@
         <v>4</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E144" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F144" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -6944,22 +6944,22 @@
         <v>4</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E145" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F145" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -6970,22 +6970,22 @@
         <v>4</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E146" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F146" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -6996,22 +6996,22 @@
         <v>4</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E147" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="F147" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E147" s="48" t="s">
-        <v>495</v>
-      </c>
-      <c r="F147" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="H147" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -7022,22 +7022,22 @@
         <v>4</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E148" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F148" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7048,22 +7048,22 @@
         <v>4</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E149" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7074,22 +7074,22 @@
         <v>4</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E150" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F150" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -7098,22 +7098,22 @@
         <v>4</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E151" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F151" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7124,22 +7124,22 @@
         <v>4</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E152" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F152" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G152" s="39" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H152" s="42" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7150,22 +7150,22 @@
         <v>4</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E153" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F153" s="43" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7176,22 +7176,22 @@
         <v>4</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E154" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -7202,22 +7202,22 @@
         <v>4</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E155" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="98" x14ac:dyDescent="0.2">
@@ -7225,25 +7225,25 @@
         <v>45320</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E156" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F156" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7251,25 +7251,25 @@
         <v>45365</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E157" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F157" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7277,25 +7277,25 @@
         <v>45384</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E158" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F158" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="182" x14ac:dyDescent="0.2">
@@ -7306,74 +7306,74 @@
         <v>2</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E159" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F159" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="11">
         <v>45310</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="E160" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F160" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>45327</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="E161" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F161" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -7381,51 +7381,51 @@
         <v>45329</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E162" s="48" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F162" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>45331</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E163" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F163" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -7433,25 +7433,25 @@
         <v>45334</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E164" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F164" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -7459,25 +7459,25 @@
         <v>45338</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E165" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F165" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -7485,25 +7485,25 @@
         <v>45348</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E166" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F166" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="266" x14ac:dyDescent="0.2">
@@ -7511,25 +7511,25 @@
         <v>45352</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E167" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F167" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7537,25 +7537,25 @@
         <v>45353</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E168" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F168" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -7563,25 +7563,25 @@
         <v>45355</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E169" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F169" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="126" x14ac:dyDescent="0.2">
@@ -7589,25 +7589,25 @@
         <v>45356</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E170" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F170" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="154" x14ac:dyDescent="0.2">
@@ -7615,25 +7615,25 @@
         <v>45356</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E171" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F171" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="168" x14ac:dyDescent="0.2">
@@ -7641,25 +7641,25 @@
         <v>45357</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E172" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F172" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7667,25 +7667,25 @@
         <v>45358</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E173" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F173" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7693,25 +7693,25 @@
         <v>45358</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E174" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F174" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7719,25 +7719,25 @@
         <v>45358</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E175" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F175" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7745,25 +7745,25 @@
         <v>45358</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E176" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F176" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7771,25 +7771,25 @@
         <v>45358</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E177" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F177" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7797,25 +7797,25 @@
         <v>45358</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E178" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F178" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7826,22 +7826,22 @@
         <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E179" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F179" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -7852,22 +7852,22 @@
         <v>4</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E180" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F180" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -7878,22 +7878,22 @@
         <v>4</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E181" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F181" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7904,22 +7904,22 @@
         <v>4</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E182" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F182" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7930,22 +7930,22 @@
         <v>4</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E183" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F183" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7956,22 +7956,22 @@
         <v>4</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E184" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F184" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7982,22 +7982,22 @@
         <v>4</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E185" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F185" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8008,22 +8008,22 @@
         <v>4</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E186" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F186" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -8034,22 +8034,22 @@
         <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E187" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F187" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8060,22 +8060,22 @@
         <v>4</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E188" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F188" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8086,22 +8086,22 @@
         <v>4</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E189" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="F189" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="G189" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F189" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="H189" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8112,22 +8112,22 @@
         <v>4</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E190" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="F190" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F190" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="H190" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8138,22 +8138,22 @@
         <v>4</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E191" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="F191" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F191" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="H191" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8164,22 +8164,22 @@
         <v>4</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E192" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F192" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8190,22 +8190,22 @@
         <v>4</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E193" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F193" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8216,22 +8216,22 @@
         <v>4</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E194" s="48" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F194" s="44" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8242,22 +8242,22 @@
         <v>4</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E195" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F195" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8268,22 +8268,22 @@
         <v>4</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E196" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F196" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="112" x14ac:dyDescent="0.2">
@@ -8294,22 +8294,22 @@
         <v>2</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E197" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F197" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -8320,22 +8320,22 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E198" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F198" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -8346,22 +8346,22 @@
         <v>4</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E199" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F199" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -8372,22 +8372,22 @@
         <v>4</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E200" s="47" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="F200" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -8430,7 +8430,7 @@
     <hyperlink ref="H98" r:id="rId32" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{DD21F0B9-54D3-A74E-B6F4-82B5B53F1C35}"/>
     <hyperlink ref="H97" r:id="rId33" display="https://wwwnc.cdc.gov/travel/notices/level1/measles-globe" xr:uid="{07DA59A2-F5D9-DC48-98E2-CD54AE86143F}"/>
     <hyperlink ref="H125" r:id="rId34" display="https://promedmail.org/promed-post?place=8715079,50" xr:uid="{72EC3A22-05A8-8A4B-872B-BE428196D7C6}"/>
-    <hyperlink ref="H138" r:id="rId35" xr:uid="{A78A50CF-0927-5045-B49F-AEEF21696023}"/>
+    <hyperlink ref="H138" r:id="rId35" display="https://bnnbreaking.com/breaking-news/health/hepatitis-e-outbreak-declared-in-warrap-state-south-sudan-following-toddlers-positive-test" xr:uid="{A78A50CF-0927-5045-B49F-AEEF21696023}"/>
     <hyperlink ref="H139" r:id="rId36" xr:uid="{89DED1A0-5536-7749-ABFB-C4F5E0155209}"/>
     <hyperlink ref="H140" r:id="rId37" display="https://promedmail.org/promed-post?place=8715221,41" xr:uid="{DF497C88-60FC-CF43-A8C9-C62E6AB43533}"/>
     <hyperlink ref="H144" r:id="rId38" display="https://promedmail.org/promed-post?place=8715430,28188" xr:uid="{200F4F19-0EAF-154A-88B7-5EBDBF2FD9EB}"/>

--- a/Veille emergences avril 2024 clean.xlsx
+++ b/Veille emergences avril 2024 clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benedictemelot/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB8B97-8F19-1B47-AF64-4EAC73647DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEC945F-2C40-E042-B307-07E97744765B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="760" windowWidth="30240" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="497">
   <si>
     <t>Date</t>
   </si>
@@ -498,9 +498,6 @@
 https://www.mesvaccins.net/web/news/21904-hong-kong-signale-le-premier-cas-de-virus-de-l-herpes-b</t>
   </si>
   <si>
-    <t>France (La Réunion)</t>
-  </si>
-  <si>
     <t xml:space="preserve">medecinedesvoyages.net </t>
   </si>
   <si>
@@ -580,9 +577,6 @@
 https://www.mesvaccins.net/web/news/21784-augmentation-inhabituelle-des-cas-de-psittacose-en-europe-l-oms-fait-un-point-sur-cette-situation-signalee-par-cinq-pays</t>
   </si>
   <si>
-    <t>Kirghizistan</t>
-  </si>
-  <si>
     <t>Bilharziose</t>
   </si>
   <si>
@@ -1751,9 +1745,6 @@
     <t>décès d'un homme de 37 ans en 2024, après morsure par un chien enragé dans le gouvernorat de Keirouan. En 2023, 5 décès humains, 274 décès d'animaux.</t>
   </si>
   <si>
-    <t>Ouganda</t>
-  </si>
-  <si>
     <t>25 nouveaux cas humains de charbon(7 confirmés, 3 probables et 15 suspects) et trois décès parmi les cas confirmés (42,9 % de CFR) ont été signalés dans trois districts : Kazo (22 cas/3 décès), Kyotera (1) et Ibanda (2).</t>
   </si>
   <si>
@@ -2132,18 +2123,12 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>Serbia</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
     <t>Belgium</t>
   </si>
   <si>
-    <t>Netherland</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -2168,9 +2153,6 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>Roumania</t>
-  </si>
-  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -2225,21 +2207,12 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>Bhoutan</t>
-  </si>
-  <si>
     <t>Nepal</t>
   </si>
   <si>
     <t>Kazakhstan</t>
   </si>
   <si>
-    <t>Taijikistan</t>
-  </si>
-  <si>
-    <t>Ouzbekistan</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">le nombre de cas de coqueluche signalés jusqu'au SE3/2024 est de </t>
     </r>
@@ -2373,9 +2346,6 @@
   </si>
   <si>
     <t>au 25 fevrier 2024, 3536 cas suspects, 147 morts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan </t>
   </si>
   <si>
     <t>Liberia</t>
@@ -2581,6 +2551,33 @@
   </si>
   <si>
     <t>Orange</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Republic of Serbia</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of the Sudan </t>
   </si>
 </sst>
 </file>
@@ -3206,8 +3203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3227,25 +3224,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="G1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -3256,19 +3253,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>57</v>
@@ -3282,22 +3279,22 @@
         <v>112</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>137</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -3308,22 +3305,22 @@
         <v>112</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>357</v>
+        <v>490</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="154" x14ac:dyDescent="0.2">
@@ -3334,22 +3331,22 @@
         <v>112</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>458</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>461</v>
+        <v>448</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>448</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="154" x14ac:dyDescent="0.2">
@@ -3360,22 +3357,22 @@
         <v>112</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="196" x14ac:dyDescent="0.2">
@@ -3386,22 +3383,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>360</v>
+        <v>489</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="98" x14ac:dyDescent="0.2">
@@ -3409,25 +3406,25 @@
         <v>45386</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -3435,25 +3432,25 @@
         <v>45386</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="182" x14ac:dyDescent="0.2">
@@ -3464,22 +3461,22 @@
         <v>112</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>131</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -3490,16 +3487,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>62</v>
@@ -3513,25 +3510,25 @@
         <v>45386</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D12" s="35" t="s">
+      <c r="E12" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3542,16 +3539,16 @@
         <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>22</v>
@@ -3565,25 +3562,25 @@
         <v>45386</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>123</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>457</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="319" x14ac:dyDescent="0.2">
@@ -3594,22 +3591,22 @@
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="319" x14ac:dyDescent="0.2">
@@ -3620,22 +3617,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="319" x14ac:dyDescent="0.2">
@@ -3646,22 +3643,22 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="319" x14ac:dyDescent="0.2">
@@ -3672,22 +3669,22 @@
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="319" x14ac:dyDescent="0.2">
@@ -3698,22 +3695,22 @@
         <v>15</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>360</v>
+        <v>489</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -3724,16 +3721,16 @@
         <v>78</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>76</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>77</v>
@@ -3747,51 +3744,51 @@
         <v>45327</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="182" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>45353</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -3802,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H23" s="27" t="s">
         <v>102</v>
@@ -3828,25 +3825,25 @@
         <v>4</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>360</v>
+        <v>489</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="182" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="196" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>45389</v>
       </c>
@@ -3854,152 +3851,152 @@
         <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G25" s="31" t="s">
         <v>44</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="332" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="358" x14ac:dyDescent="0.2">
       <c r="A26" s="24">
         <v>45391</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E26" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F26" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="H26" s="20" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="140" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="154" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>45391</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="140" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="154" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>45391</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="140" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="154" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>45391</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="140" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="154" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>45391</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>369</v>
+        <v>488</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -4010,19 +4007,19 @@
         <v>4</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H31" s="28" t="s">
         <v>60</v>
@@ -4036,19 +4033,19 @@
         <v>4</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H32" s="28" t="s">
         <v>60</v>
@@ -4062,22 +4059,22 @@
         <v>4</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -4088,16 +4085,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>52</v>
@@ -4114,16 +4111,16 @@
         <v>4</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>41</v>
@@ -4140,16 +4137,16 @@
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>45</v>
@@ -4172,10 +4169,10 @@
         <v>83</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>80</v>
@@ -4192,22 +4189,22 @@
         <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -4224,13 +4221,13 @@
         <v>5</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="H39" s="21" t="s">
         <v>51</v>
@@ -4250,13 +4247,13 @@
         <v>8</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>17</v>
@@ -4276,13 +4273,13 @@
         <v>6</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H41" s="21" t="s">
         <v>110</v>
@@ -4296,19 +4293,19 @@
         <v>15</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H42" s="21" t="s">
         <v>27</v>
@@ -4328,10 +4325,10 @@
         <v>105</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>106</v>
@@ -4351,22 +4348,22 @@
         <v>35</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="H44" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="196" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="210" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>45373</v>
       </c>
@@ -4374,25 +4371,25 @@
         <v>2</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="196" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="210" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45373</v>
       </c>
@@ -4400,25 +4397,25 @@
         <v>2</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="196" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="210" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45373</v>
       </c>
@@ -4426,25 +4423,25 @@
         <v>2</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="196" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="210" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>45373</v>
       </c>
@@ -4452,25 +4449,25 @@
         <v>2</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="196" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="210" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>45373</v>
       </c>
@@ -4478,25 +4475,25 @@
         <v>2</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="196" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="210" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>45373</v>
       </c>
@@ -4504,25 +4501,25 @@
         <v>2</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="196" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="210" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>45373</v>
       </c>
@@ -4530,25 +4527,25 @@
         <v>2</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="196" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="210" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>45373</v>
       </c>
@@ -4556,25 +4553,25 @@
         <v>2</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="196" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="210" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>45373</v>
       </c>
@@ -4582,25 +4579,25 @@
         <v>2</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="196" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="210" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>45373</v>
       </c>
@@ -4608,22 +4605,22 @@
         <v>2</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -4637,16 +4634,16 @@
         <v>14</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H55" s="21" t="s">
         <v>54</v>
@@ -4660,22 +4657,22 @@
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -4686,16 +4683,16 @@
         <v>4</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>66</v>
@@ -4712,22 +4709,22 @@
         <v>4</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="225" x14ac:dyDescent="0.2">
@@ -4744,16 +4741,16 @@
         <v>37</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="306" x14ac:dyDescent="0.15">
@@ -4764,22 +4761,22 @@
         <v>15</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="196" x14ac:dyDescent="0.2">
@@ -4790,22 +4787,22 @@
         <v>112</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="126" x14ac:dyDescent="0.2">
@@ -4816,19 +4813,19 @@
         <v>15</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E62" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>25</v>
@@ -4842,19 +4839,19 @@
         <v>43</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>90</v>
@@ -4868,19 +4865,19 @@
         <v>112</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E64" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>118</v>
@@ -4894,22 +4891,22 @@
         <v>4</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>92</v>
       </c>
       <c r="E65" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G65" s="18" t="s">
         <v>93</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -4926,13 +4923,13 @@
         <v>71</v>
       </c>
       <c r="E66" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H66" s="20" t="s">
         <v>72</v>
@@ -4949,19 +4946,19 @@
         <v>39</v>
       </c>
       <c r="D67" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H67" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="E67" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="224" x14ac:dyDescent="0.2">
@@ -4972,22 +4969,22 @@
         <v>112</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D68" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="G68" s="7" t="s">
+      <c r="H68" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -4998,22 +4995,22 @@
         <v>15</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>89</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -5030,10 +5027,10 @@
         <v>8</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>13</v>
@@ -5050,22 +5047,22 @@
         <v>4</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>101</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -5082,13 +5079,13 @@
         <v>8</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>84</v>
@@ -5102,19 +5099,19 @@
         <v>4</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E73" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H73" s="19" t="s">
         <v>70</v>
@@ -5128,19 +5125,19 @@
         <v>15</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>18</v>
@@ -5160,13 +5157,13 @@
         <v>8</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>18</v>
@@ -5180,19 +5177,19 @@
         <v>15</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>18</v>
@@ -5206,19 +5203,19 @@
         <v>4</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E77" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H77" s="19" t="s">
         <v>48</v>
@@ -5232,19 +5229,19 @@
         <v>4</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E78" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H78" s="19" t="s">
         <v>121</v>
@@ -5258,19 +5255,19 @@
         <v>4</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>71</v>
       </c>
       <c r="E79" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H79" s="20" t="s">
         <v>72</v>
@@ -5284,22 +5281,22 @@
         <v>4</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>69</v>
       </c>
       <c r="E80" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H80" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -5310,22 +5307,22 @@
         <v>15</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -5336,22 +5333,22 @@
         <v>15</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="80" x14ac:dyDescent="0.2">
@@ -5362,19 +5359,19 @@
         <v>4</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>36</v>
@@ -5391,19 +5388,19 @@
         <v>85</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E84" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="225" x14ac:dyDescent="0.2">
@@ -5414,16 +5411,16 @@
         <v>4</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E85" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G85" s="18" t="s">
         <v>88</v>
@@ -5440,16 +5437,16 @@
         <v>4</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E86" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G86" s="18" t="s">
         <v>75</v>
@@ -5472,16 +5469,16 @@
         <v>99</v>
       </c>
       <c r="E87" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="165" x14ac:dyDescent="0.2">
@@ -5498,13 +5495,13 @@
         <v>99</v>
       </c>
       <c r="E88" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H88" s="19" t="s">
         <v>120</v>
@@ -5518,19 +5515,19 @@
         <v>15</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E89" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>32</v>
@@ -5544,19 +5541,19 @@
         <v>4</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H90" s="20" t="s">
         <v>100</v>
@@ -5570,19 +5567,19 @@
         <v>4</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H91" s="19" t="s">
         <v>94</v>
@@ -5596,19 +5593,19 @@
         <v>4</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="H92" s="19" t="s">
         <v>58</v>
@@ -5628,13 +5625,13 @@
         <v>3</v>
       </c>
       <c r="E93" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H93" s="19" t="s">
         <v>116</v>
@@ -5651,19 +5648,19 @@
         <v>86</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F94" s="30" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -5674,22 +5671,22 @@
         <v>112</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>145</v>
+        <v>491</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E95" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F95" s="30" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -5700,25 +5697,25 @@
         <v>4</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E96" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F96" s="30" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H96" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="280" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>45373</v>
       </c>
@@ -5729,22 +5726,22 @@
         <v>119</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G97" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="280" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>45373</v>
       </c>
@@ -5752,25 +5749,25 @@
         <v>2</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>388</v>
+        <v>493</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G98" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="280" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>45373</v>
       </c>
@@ -5778,25 +5775,25 @@
         <v>2</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E99" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G99" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="280" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>45373</v>
       </c>
@@ -5804,25 +5801,25 @@
         <v>2</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E100" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G100" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="280" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>45373</v>
       </c>
@@ -5830,25 +5827,25 @@
         <v>2</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E101" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G101" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="280" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>45373</v>
       </c>
@@ -5856,25 +5853,25 @@
         <v>2</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E102" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F102" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G102" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="280" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>45373</v>
       </c>
@@ -5885,22 +5882,22 @@
         <v>98</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E103" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G103" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="280" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>45373</v>
       </c>
@@ -5908,25 +5905,25 @@
         <v>2</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E104" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G104" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="280" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>45373</v>
       </c>
@@ -5934,25 +5931,25 @@
         <v>2</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>391</v>
+        <v>492</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E105" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G105" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="280" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>45373</v>
       </c>
@@ -5960,25 +5957,25 @@
         <v>2</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>392</v>
+        <v>494</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E106" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G106" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="266" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="280" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>45373</v>
       </c>
@@ -5986,22 +5983,22 @@
         <v>2</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E107" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G107" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="266" x14ac:dyDescent="0.2">
@@ -6012,22 +6009,22 @@
         <v>4</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D108" s="23" t="s">
         <v>65</v>
       </c>
       <c r="E108" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>64</v>
       </c>
       <c r="H108" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -6038,19 +6035,19 @@
         <v>10</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>11</v>
@@ -6064,19 +6061,19 @@
         <v>4</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>109</v>
       </c>
       <c r="E110" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H110" s="20" t="s">
         <v>108</v>
@@ -6090,16 +6087,16 @@
         <v>112</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E111" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G111" s="18" t="s">
         <v>114</v>
@@ -6116,19 +6113,19 @@
         <v>4</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>96</v>
       </c>
       <c r="E112" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H112" s="20" t="s">
         <v>97</v>
@@ -6142,19 +6139,19 @@
         <v>4</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E113" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H113" s="19" t="s">
         <v>95</v>
@@ -6168,22 +6165,22 @@
         <v>4</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E114" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -6194,22 +6191,22 @@
         <v>4</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E115" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H115" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -6217,25 +6214,25 @@
         <v>45309</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E116" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="F116" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="H116" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E116" s="48" t="s">
-        <v>457</v>
-      </c>
-      <c r="F116" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -6243,25 +6240,25 @@
         <v>45319</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="H117" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E117" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -6269,25 +6266,25 @@
         <v>45320</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E118" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="140" x14ac:dyDescent="0.2">
@@ -6295,25 +6292,25 @@
         <v>45327</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F119" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -6321,25 +6318,25 @@
         <v>45327</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E120" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -6347,25 +6344,25 @@
         <v>45341</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>230</v>
+        <v>495</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F121" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -6373,25 +6370,25 @@
         <v>45341</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E122" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="F122" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E122" s="48" t="s">
-        <v>457</v>
-      </c>
-      <c r="F122" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="H122" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -6399,25 +6396,25 @@
         <v>45344</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E123" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -6428,22 +6425,22 @@
         <v>4</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E124" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -6451,339 +6448,339 @@
         <v>45351</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="E125" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E125" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A126" s="11"/>
       <c r="B126" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E126" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F126" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A127" s="11"/>
       <c r="B127" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E127" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F127" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A128" s="11"/>
       <c r="B128" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E128" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F128" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A129" s="11"/>
       <c r="B129" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E129" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F129" s="36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A130" s="11"/>
       <c r="B130" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A131" s="11"/>
       <c r="B131" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E131" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F131" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A132" s="11"/>
       <c r="B132" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F132" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A133" s="11"/>
       <c r="B133" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E133" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F133" s="36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A134" s="11"/>
       <c r="B134" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E134" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F134" s="36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A135" s="11"/>
       <c r="B135" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E135" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F135" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A136" s="11"/>
       <c r="B136" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E136" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F136" s="36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="84" x14ac:dyDescent="0.2">
       <c r="A137" s="11"/>
       <c r="B137" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E137" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F137" s="36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="168" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="182" x14ac:dyDescent="0.2">
       <c r="A138" s="11">
         <v>45353</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F138" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -6791,25 +6788,25 @@
         <v>45356</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="E139" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -6817,97 +6814,97 @@
         <v>45356</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E140" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F140" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="11"/>
       <c r="B141" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E141" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F141" s="36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H141" s="41" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="11"/>
       <c r="B142" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E142" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F142" s="36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="H142" s="41" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="11"/>
       <c r="B143" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E143" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F143" s="36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H143" s="41" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -6918,22 +6915,22 @@
         <v>4</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E144" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F144" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -6944,22 +6941,22 @@
         <v>4</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E145" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F145" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -6970,22 +6967,22 @@
         <v>4</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E146" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F146" s="36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -6996,22 +6993,22 @@
         <v>4</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E147" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F147" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -7022,22 +7019,22 @@
         <v>4</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E148" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F148" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7048,22 +7045,22 @@
         <v>4</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E149" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7074,22 +7071,22 @@
         <v>4</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E150" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F150" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -7098,22 +7095,22 @@
         <v>4</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E151" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F151" s="36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7124,22 +7121,22 @@
         <v>4</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E152" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="F152" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G152" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E152" s="48" t="s">
-        <v>458</v>
-      </c>
-      <c r="F152" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="G152" s="39" t="s">
-        <v>436</v>
-      </c>
       <c r="H152" s="42" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7150,22 +7147,22 @@
         <v>4</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E153" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F153" s="43" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7176,22 +7173,22 @@
         <v>4</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E154" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -7202,22 +7199,22 @@
         <v>4</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E155" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="98" x14ac:dyDescent="0.2">
@@ -7225,25 +7222,25 @@
         <v>45320</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E156" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F156" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7251,25 +7248,25 @@
         <v>45365</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E157" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H157" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E157" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="F157" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7277,25 +7274,25 @@
         <v>45384</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E158" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F158" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="182" x14ac:dyDescent="0.2">
@@ -7306,22 +7303,22 @@
         <v>2</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E159" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F159" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -7329,25 +7326,25 @@
         <v>45310</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E160" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F160" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -7355,25 +7352,25 @@
         <v>45327</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E161" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F161" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -7381,25 +7378,25 @@
         <v>45329</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E162" s="48" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F162" s="36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -7407,25 +7404,25 @@
         <v>45331</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E163" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F163" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -7433,25 +7430,25 @@
         <v>45334</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E164" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F164" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -7459,25 +7456,25 @@
         <v>45338</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E165" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F165" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -7485,25 +7482,25 @@
         <v>45348</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E166" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F166" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="266" x14ac:dyDescent="0.2">
@@ -7511,25 +7508,25 @@
         <v>45352</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E167" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F167" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7537,25 +7534,25 @@
         <v>45353</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E168" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F168" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -7563,25 +7560,25 @@
         <v>45355</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E169" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F169" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="126" x14ac:dyDescent="0.2">
@@ -7589,25 +7586,25 @@
         <v>45356</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E170" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F170" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="154" x14ac:dyDescent="0.2">
@@ -7615,25 +7612,25 @@
         <v>45356</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E171" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F171" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="168" x14ac:dyDescent="0.2">
@@ -7641,25 +7638,25 @@
         <v>45357</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E172" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F172" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7667,25 +7664,25 @@
         <v>45358</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E173" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F173" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7693,25 +7690,25 @@
         <v>45358</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E174" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="F174" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E174" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="F174" s="33" t="s">
-        <v>455</v>
-      </c>
       <c r="G174" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7719,25 +7716,25 @@
         <v>45358</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E175" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F175" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7745,25 +7742,25 @@
         <v>45358</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E176" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F176" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7771,25 +7768,25 @@
         <v>45358</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E177" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F177" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7797,25 +7794,25 @@
         <v>45358</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E178" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F178" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7826,22 +7823,22 @@
         <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E179" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F179" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -7852,22 +7849,22 @@
         <v>4</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E180" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F180" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="56" x14ac:dyDescent="0.2">
@@ -7878,22 +7875,22 @@
         <v>4</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E181" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F181" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7904,22 +7901,22 @@
         <v>4</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E182" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F182" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7930,22 +7927,22 @@
         <v>4</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E183" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F183" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7956,22 +7953,22 @@
         <v>4</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E184" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F184" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -7982,22 +7979,22 @@
         <v>4</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E185" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F185" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8008,22 +8005,22 @@
         <v>4</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E186" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F186" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -8034,22 +8031,22 @@
         <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E187" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F187" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8060,22 +8057,22 @@
         <v>4</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E188" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F188" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8086,22 +8083,22 @@
         <v>4</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E189" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F189" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8112,22 +8109,22 @@
         <v>4</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E190" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F190" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8138,22 +8135,22 @@
         <v>4</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E191" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F191" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8164,22 +8161,22 @@
         <v>4</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E192" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F192" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8190,22 +8187,22 @@
         <v>4</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E193" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F193" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8216,22 +8213,22 @@
         <v>4</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E194" s="48" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F194" s="44" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8242,22 +8239,22 @@
         <v>4</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E195" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F195" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="84" x14ac:dyDescent="0.2">
@@ -8268,22 +8265,22 @@
         <v>4</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E196" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F196" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="112" x14ac:dyDescent="0.2">
@@ -8294,22 +8291,22 @@
         <v>2</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E197" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F197" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -8320,22 +8317,22 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E198" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F198" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -8346,22 +8343,22 @@
         <v>4</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E199" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F199" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="70" x14ac:dyDescent="0.2">
@@ -8372,22 +8369,22 @@
         <v>4</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E200" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F200" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
